--- a/04_Analysis/04_AnalysisExam_class/2_다나와제품_크롤링/files/3_2_danawa_data_final.xlsx
+++ b/04_Analysis/04_AnalysisExam_class/2_다나와제품_크롤링/files/3_2_danawa_data_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="351">
   <si>
     <t>카테고리</t>
   </si>
@@ -37,148 +37,169 @@
     <t>핸디/스틱청소기</t>
   </si>
   <si>
+    <t>LG전자</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
     <t>샤오미</t>
   </si>
   <si>
-    <t>LG전자</t>
-  </si>
-  <si>
-    <t>삼성전자</t>
-  </si>
-  <si>
     <t>일렉트로룩스</t>
   </si>
   <si>
     <t>다이슨</t>
   </si>
   <si>
+    <t>오토모</t>
+  </si>
+  <si>
+    <t>무궁화전자</t>
+  </si>
+  <si>
     <t>DIBEA</t>
   </si>
   <si>
+    <t>신일전자</t>
+  </si>
+  <si>
+    <t>원더스리빙</t>
+  </si>
+  <si>
+    <t>유니맥스</t>
+  </si>
+  <si>
+    <t>아이룸</t>
+  </si>
+  <si>
+    <t>시원코퍼레이션</t>
+  </si>
+  <si>
+    <t>기펠</t>
+  </si>
+  <si>
+    <t>캐치웰</t>
+  </si>
+  <si>
+    <t>블랙앤데커</t>
+  </si>
+  <si>
+    <t>롯데</t>
+  </si>
+  <si>
+    <t>EUP</t>
+  </si>
+  <si>
+    <t>모온</t>
+  </si>
+  <si>
+    <t>보만</t>
+  </si>
+  <si>
+    <t>보쉬</t>
+  </si>
+  <si>
+    <t>블랙파인</t>
+  </si>
+  <si>
+    <t>쿠쿠전자</t>
+  </si>
+  <si>
+    <t>듀플렉스</t>
+  </si>
+  <si>
+    <t>오아</t>
+  </si>
+  <si>
+    <t>테팔</t>
+  </si>
+  <si>
+    <t>툴앤툴</t>
+  </si>
+  <si>
+    <t>아이닉</t>
+  </si>
+  <si>
     <t>리하스</t>
   </si>
   <si>
-    <t>신일산업</t>
+    <t>보아스</t>
+  </si>
+  <si>
+    <t>좋은생활지웰</t>
+  </si>
+  <si>
+    <t>루베크</t>
+  </si>
+  <si>
+    <t>마끼다</t>
+  </si>
+  <si>
+    <t>플러스마이너스제로</t>
+  </si>
+  <si>
+    <t>일럭스고</t>
+  </si>
+  <si>
+    <t>델로라</t>
+  </si>
+  <si>
+    <t>이나프</t>
+  </si>
+  <si>
+    <t>에어메이드</t>
+  </si>
+  <si>
+    <t>스위스밀리터리</t>
+  </si>
+  <si>
+    <t>티피오스</t>
+  </si>
+  <si>
+    <t>퍼피유</t>
+  </si>
+  <si>
+    <t>비브르</t>
   </si>
   <si>
     <t>대웅모닝컴</t>
   </si>
   <si>
-    <t>기펠</t>
-  </si>
-  <si>
-    <t>아이룸</t>
-  </si>
-  <si>
-    <t>로이드미</t>
-  </si>
-  <si>
-    <t>롯데</t>
-  </si>
-  <si>
-    <t>EUP</t>
-  </si>
-  <si>
-    <t>유니맥스</t>
-  </si>
-  <si>
-    <t>시원코퍼레이션</t>
-  </si>
-  <si>
-    <t>테팔</t>
-  </si>
-  <si>
-    <t>보쉬</t>
-  </si>
-  <si>
-    <t>듀플렉스</t>
-  </si>
-  <si>
-    <t>발뮤다</t>
-  </si>
-  <si>
-    <t>블랙앤데커</t>
-  </si>
-  <si>
-    <t>델로라</t>
-  </si>
-  <si>
     <t>로보락</t>
   </si>
   <si>
-    <t>마끼다</t>
-  </si>
-  <si>
-    <t>무궁화전자</t>
-  </si>
-  <si>
-    <t>캐치웰</t>
-  </si>
-  <si>
-    <t>아이코넬</t>
-  </si>
-  <si>
-    <t>툴앤툴</t>
-  </si>
-  <si>
-    <t>일럭스고</t>
+    <t>한경희생활과학</t>
+  </si>
+  <si>
+    <t>한빛시스템</t>
+  </si>
+  <si>
+    <t>아로나전자</t>
   </si>
   <si>
     <t>클래파</t>
   </si>
   <si>
-    <t>쿠쿠전자</t>
-  </si>
-  <si>
-    <t>아이닉</t>
-  </si>
-  <si>
     <t>홈마블</t>
   </si>
   <si>
-    <t>에이스전자</t>
-  </si>
-  <si>
-    <t>에어메이드</t>
-  </si>
-  <si>
-    <t>루베크</t>
-  </si>
-  <si>
-    <t>비브르</t>
-  </si>
-  <si>
-    <t>오토모</t>
-  </si>
-  <si>
-    <t>아토케어</t>
-  </si>
-  <si>
-    <t>스위스밀리터리</t>
+    <t>리빙코리아</t>
+  </si>
+  <si>
+    <t>톰슨</t>
+  </si>
+  <si>
+    <t>ABKO</t>
+  </si>
+  <si>
+    <t>블루필</t>
   </si>
   <si>
     <t>보아르</t>
   </si>
   <si>
-    <t>스마트빔</t>
-  </si>
-  <si>
-    <t>퍼피유</t>
-  </si>
-  <si>
-    <t>티피오스</t>
-  </si>
-  <si>
-    <t>저스트원</t>
-  </si>
-  <si>
-    <t>보만</t>
-  </si>
-  <si>
-    <t>BDC</t>
-  </si>
-  <si>
-    <t>오아</t>
+    <t>스윙</t>
   </si>
   <si>
     <t>한샘</t>
@@ -187,955 +208,865 @@
     <t>보랄</t>
   </si>
   <si>
-    <t>BSW</t>
-  </si>
-  <si>
-    <t>레이캅</t>
-  </si>
-  <si>
-    <t>신일전자</t>
-  </si>
-  <si>
-    <t>톰슨</t>
-  </si>
-  <si>
-    <t>ABKO</t>
-  </si>
-  <si>
-    <t>원더스리빙</t>
-  </si>
-  <si>
-    <t>라쿠진</t>
-  </si>
-  <si>
-    <t>휴스톰</t>
-  </si>
-  <si>
-    <t>한경희생활과학</t>
-  </si>
-  <si>
-    <t>보라산업</t>
-  </si>
-  <si>
-    <t>아로나전자</t>
-  </si>
-  <si>
-    <t>이스타</t>
-  </si>
-  <si>
-    <t>이나프</t>
-  </si>
-  <si>
-    <t>신일</t>
-  </si>
-  <si>
     <t>홍진테크</t>
   </si>
   <si>
-    <t>이마트</t>
+    <t>오브제컬렉션 코드제로 ThinQ A9S AO9571</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A9100S</t>
+  </si>
+  <si>
+    <t>비스포크 제트 VS20A956A3</t>
   </si>
   <si>
     <t>드리미 V10</t>
   </si>
   <si>
+    <t>제트 VS20T9218QDCC</t>
+  </si>
+  <si>
+    <t>TROUVER POWER 11</t>
+  </si>
+  <si>
+    <t>제트 VS20T9278S3CS</t>
+  </si>
+  <si>
+    <t>WELL Q6 WQ61-1OGG</t>
+  </si>
+  <si>
+    <t>코드제로 ThinQ A9S A9370</t>
+  </si>
+  <si>
     <t>코드제로 ThinQ A9S A9700</t>
   </si>
   <si>
+    <t>드리미 V9</t>
+  </si>
+  <si>
+    <t>디지털 슬림 플러피+</t>
+  </si>
+  <si>
+    <t>비스포크 제트 VS20A957D2</t>
+  </si>
+  <si>
+    <t>비스포크 제트 VS20A957E3</t>
+  </si>
+  <si>
+    <t>코드제로 ThinQ A9S+ AS9471</t>
+  </si>
+  <si>
+    <t>ATM-H100</t>
+  </si>
+  <si>
+    <t>V10 플러피 오리진</t>
+  </si>
+  <si>
+    <t>코드제로 ThinQ A9S A9400</t>
+  </si>
+  <si>
     <t>제트 VS15R8500BF</t>
   </si>
   <si>
-    <t>제트 VS20T9258SDCS</t>
-  </si>
-  <si>
-    <t>제트 VS20T9213QDCSB</t>
+    <t>WELL Q7 WQ71-2OIB</t>
+  </si>
+  <si>
+    <t>코드제로 ThinQ A9S A9470</t>
+  </si>
+  <si>
+    <t>V11 컴플리트</t>
+  </si>
+  <si>
+    <t>ZB3302AK</t>
+  </si>
+  <si>
+    <t>SHUNZAO Z11</t>
+  </si>
+  <si>
+    <t>V10 카본파이버</t>
+  </si>
+  <si>
+    <t>코드제로 ThinQ A9S AS9570</t>
+  </si>
+  <si>
+    <t>코드제로 ThinQ A9S A9300</t>
+  </si>
+  <si>
+    <t>제트 VS20T9278S3</t>
+  </si>
+  <si>
+    <t>V11 플러피 엑스트라</t>
+  </si>
+  <si>
+    <t>코드제로 ThinQ A9S AS9470</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 파워프로 PQ92-3BWF</t>
+  </si>
+  <si>
+    <t>옴니 글라이드 컴플리트+</t>
+  </si>
+  <si>
+    <t>바로바로 MC-B250</t>
+  </si>
+  <si>
+    <t>유핀 CL99</t>
+  </si>
+  <si>
+    <t>코드제로 ThinQ A9S A9500</t>
+  </si>
+  <si>
+    <t>에어본 화이트 VC-H22</t>
+  </si>
+  <si>
+    <t>차이슨 ALLNEW29000</t>
+  </si>
+  <si>
+    <t>비스포크 제트 VS20A957G3</t>
+  </si>
+  <si>
+    <t>V11 220AW 컴플리트</t>
+  </si>
+  <si>
+    <t>V8 플러피</t>
+  </si>
+  <si>
+    <t>M500 프로</t>
+  </si>
+  <si>
+    <t>Well Q7 Pet WQ71-2PSSF</t>
+  </si>
+  <si>
+    <t>코드제로 ThinQ A9S A9470IK</t>
+  </si>
+  <si>
+    <t>WELL Q7 WQ71-2OIBF</t>
+  </si>
+  <si>
+    <t>코드제로 ThinQ A9S 펫 A9700BPK</t>
+  </si>
+  <si>
+    <t>라피도 리튬 ZB6108</t>
+  </si>
+  <si>
+    <t>제트 VS20R9078S2</t>
+  </si>
+  <si>
+    <t>드리미 V10P</t>
+  </si>
+  <si>
+    <t>WELL Q7 WQ71-2BSWF</t>
+  </si>
+  <si>
+    <t>코드제로 ThinQ A9S A9570</t>
+  </si>
+  <si>
+    <t>비스포크 제트 VS20A957G2</t>
+  </si>
+  <si>
+    <t>V11 220 에어와트 CF+</t>
+  </si>
+  <si>
+    <t>제트 VS20T9257SD</t>
+  </si>
+  <si>
+    <t>드리미 V12</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 파워프로 PQ92-3OBF</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>Well Q6 Pet WQ61-1PSH</t>
+  </si>
+  <si>
+    <t>제트 VS20T9279S6CS</t>
+  </si>
+  <si>
+    <t>DW200</t>
+  </si>
+  <si>
+    <t>SHUNZAO Z11 PRO</t>
+  </si>
+  <si>
+    <t>제트 VS20T9253QDCS</t>
+  </si>
+  <si>
+    <t>WELL Q7 WQ71-2ESSF</t>
+  </si>
+  <si>
+    <t>LCYC913</t>
+  </si>
+  <si>
+    <t>원더스 다이나킹 Z9</t>
+  </si>
+  <si>
+    <t>UVC-1688</t>
+  </si>
+  <si>
+    <t>AST-009</t>
+  </si>
+  <si>
+    <t>SVC-8858PNX</t>
+  </si>
+  <si>
+    <t>V11 플러피</t>
+  </si>
+  <si>
+    <t>SRV-2010C</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A978</t>
+  </si>
+  <si>
+    <t>코드제로 터보2.0 S87GMW</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 파워프로 PQ92-2OGF</t>
+  </si>
+  <si>
+    <t>ZET-10</t>
+  </si>
+  <si>
+    <t>CV6</t>
+  </si>
+  <si>
+    <t>V8 카본파이버</t>
+  </si>
+  <si>
+    <t>BSV2020PS</t>
+  </si>
+  <si>
+    <t>제트 VS15R8577S5</t>
+  </si>
+  <si>
+    <t>제트 VS20R9043SA</t>
+  </si>
+  <si>
+    <t>V10 앱솔루트 플러스</t>
+  </si>
+  <si>
+    <t>에이스 맥스</t>
+  </si>
+  <si>
+    <t>제트 VS20T9278S7</t>
+  </si>
+  <si>
+    <t>V10 모터헤드</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A940</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A938A</t>
+  </si>
+  <si>
+    <t>에르고라피도 프로 플러스 ZB3113AK</t>
+  </si>
+  <si>
+    <t>제트 VS19R1004BF</t>
+  </si>
+  <si>
+    <t>NEW F7</t>
+  </si>
+  <si>
+    <t>코드제로 터보 S86W</t>
+  </si>
+  <si>
+    <t>파워건 VS80M8051KL</t>
+  </si>
+  <si>
+    <t>에르고라피도 플러스 ZB3105AK</t>
+  </si>
+  <si>
+    <t>제트 VS20R9078S3</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A958A</t>
+  </si>
+  <si>
+    <t>로이드미 X30 Pro</t>
+  </si>
+  <si>
+    <t>L-277</t>
+  </si>
+  <si>
+    <t>뉴파워건 VS75N8011</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A950</t>
+  </si>
+  <si>
+    <t>V8 플러피 프로</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A960</t>
+  </si>
+  <si>
+    <t>스톰샷 VH806</t>
+  </si>
+  <si>
+    <t>V8 플러피 헤파</t>
+  </si>
+  <si>
+    <t>에르고라피도 ZB3111</t>
+  </si>
+  <si>
+    <t>울트라파워 ZB5021</t>
+  </si>
+  <si>
+    <t>오비큠 플러스 이지클린 + 펫큠세트</t>
+  </si>
+  <si>
+    <t>V8 앱솔루트 플러스</t>
+  </si>
+  <si>
+    <t>V8 앱솔루트 프로</t>
+  </si>
+  <si>
+    <t>파워건 VS80M8030</t>
+  </si>
+  <si>
+    <t>V7 플러피 플러스</t>
+  </si>
+  <si>
+    <t>파워건 VS80M8080</t>
+  </si>
+  <si>
+    <t>V8 앱솔루트 엑스트라</t>
+  </si>
+  <si>
+    <t>울트라파워 ZB5022</t>
+  </si>
+  <si>
+    <t>V8 앱솔루트</t>
+  </si>
+  <si>
+    <t>로이드미 제로</t>
+  </si>
+  <si>
+    <t>V6 코드프리 플러스</t>
+  </si>
+  <si>
+    <t>제트 VS20R9048SB</t>
+  </si>
+  <si>
+    <t>파워건 VS80M8090</t>
+  </si>
+  <si>
+    <t>뉴파워건 VS80N8062KK</t>
+  </si>
+  <si>
+    <t>파워건 VS80M8065K2</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A930</t>
   </si>
   <si>
     <t>드리미 V11</t>
   </si>
   <si>
-    <t>WELL Q6 WQ61-1OGG</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A9100</t>
-  </si>
-  <si>
-    <t>V10 카본파이버</t>
-  </si>
-  <si>
-    <t>코드제로 ThinQ A9S A9570</t>
-  </si>
-  <si>
-    <t>코드제로 ThinQ A9S A9500</t>
-  </si>
-  <si>
-    <t>코드제로 ThinQ A9S A9470</t>
-  </si>
-  <si>
-    <t>V8 플러피</t>
-  </si>
-  <si>
-    <t>제트 VS20T9279S6CS</t>
-  </si>
-  <si>
-    <t>디지털 슬림 플러피+</t>
-  </si>
-  <si>
-    <t>제트 VS20T9213QDCSP</t>
-  </si>
-  <si>
-    <t>옴니 글라이드 컴플리트+</t>
-  </si>
-  <si>
-    <t>제트 VS20T9278S3CS</t>
-  </si>
-  <si>
-    <t>V11 컴플리트</t>
-  </si>
-  <si>
-    <t>PURE Q9 PQ92-3OBF</t>
+    <t>퓨어 Q9 PQ91-3BW</t>
+  </si>
+  <si>
+    <t>에르고라피도 파워프로 ZB3414AK</t>
+  </si>
+  <si>
+    <t>로이드미 Z1 Air</t>
+  </si>
+  <si>
+    <t>VC7210</t>
+  </si>
+  <si>
+    <t>SVC-650SG</t>
+  </si>
+  <si>
+    <t>AVC-OTOA5</t>
+  </si>
+  <si>
+    <t>에르고라피도 클래식 ZB3501EB</t>
+  </si>
+  <si>
+    <t>제트 VS20T9213QD</t>
+  </si>
+  <si>
+    <t>에르고라피도 파워프로 ZB3411</t>
+  </si>
+  <si>
+    <t>PV1820BK</t>
+  </si>
+  <si>
+    <t>GAS18V-1</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A9579</t>
+  </si>
+  <si>
+    <t>JYW-BP01</t>
+  </si>
+  <si>
+    <t>에르고라피도 ZB3311</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>인스퓨어 파워클론 CVC-A1410UG</t>
+  </si>
+  <si>
+    <t>제트 VS15R8577Q5CW</t>
+  </si>
+  <si>
+    <t>제트 VS20T9218QD</t>
+  </si>
+  <si>
+    <t>차이슨 ALLNEW22000</t>
+  </si>
+  <si>
+    <t>WELL Q6 WQ61-1EDB</t>
+  </si>
+  <si>
+    <t>제트 VS20R9043QA</t>
+  </si>
+  <si>
+    <t>에어본 VC-H71</t>
+  </si>
+  <si>
+    <t>DP-480VC</t>
+  </si>
+  <si>
+    <t>OA-CL010</t>
+  </si>
+  <si>
+    <t>옴니 글라이드+</t>
+  </si>
+  <si>
+    <t>에어포스360 TY7233KO</t>
+  </si>
+  <si>
+    <t>네오스틱 T1</t>
+  </si>
+  <si>
+    <t>i20</t>
+  </si>
+  <si>
+    <t>LH20</t>
+  </si>
+  <si>
+    <t>드리미 T20</t>
+  </si>
+  <si>
+    <t>PV1420C</t>
+  </si>
+  <si>
+    <t>에어본 VC-PS86</t>
+  </si>
+  <si>
+    <t>제트 VS20T9213QDCSW</t>
+  </si>
+  <si>
+    <t>DP-485VC</t>
+  </si>
+  <si>
+    <t>파워스틱 VS60K6081KD</t>
+  </si>
+  <si>
+    <t>VO1000PG</t>
+  </si>
+  <si>
+    <t>DT11</t>
+  </si>
+  <si>
+    <t>GWELL-8070</t>
+  </si>
+  <si>
+    <t>PD1810BEXT</t>
+  </si>
+  <si>
+    <t>라피도 리튬 ZB6106</t>
+  </si>
+  <si>
+    <t>파워스틱 VS02R6512JG</t>
+  </si>
+  <si>
+    <t>NEW X10 플러스</t>
+  </si>
+  <si>
+    <t>CM-268</t>
+  </si>
+  <si>
+    <t>드리미 V10 ARES</t>
+  </si>
+  <si>
+    <t>미니제트</t>
+  </si>
+  <si>
+    <t>파워스틱 VS03R6523J2</t>
+  </si>
+  <si>
+    <t>드리미 V9P</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>VC7211</t>
+  </si>
+  <si>
+    <t>제트 VS20T9259SECC</t>
+  </si>
+  <si>
+    <t>제트 VS15R8548S5</t>
+  </si>
+  <si>
+    <t>DCL180Z</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A9200I</t>
+  </si>
+  <si>
+    <t>에어포스 라이트 TY6545KL</t>
+  </si>
+  <si>
+    <t>제트 VS20T9213QDCS</t>
+  </si>
+  <si>
+    <t>네오스틱 T400W</t>
+  </si>
+  <si>
+    <t>GAS10.8V-LI</t>
+  </si>
+  <si>
+    <t>SVC-680G</t>
+  </si>
+  <si>
+    <t>제트 VS15R8548S5CW</t>
+  </si>
+  <si>
+    <t>XJC-C030</t>
+  </si>
+  <si>
+    <t>SVC-1019L</t>
+  </si>
+  <si>
+    <t>V11 플러피+</t>
+  </si>
+  <si>
+    <t>V11 파워 300W</t>
+  </si>
+  <si>
+    <t>ILVH-2000</t>
+  </si>
+  <si>
+    <t>올인원뉴 무선청소기</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 PQ91-2OG</t>
+  </si>
+  <si>
+    <t>TROUVER TECH SOLO10</t>
+  </si>
+  <si>
+    <t>G10 프로</t>
+  </si>
+  <si>
+    <t>THE 500+ AMC-4500</t>
+  </si>
+  <si>
+    <t>라피도 리튬 ZB6114</t>
+  </si>
+  <si>
+    <t>인스퓨어 파워클론 CVC-A1420UG</t>
+  </si>
+  <si>
+    <t>V11 컴플리트 엑스트라</t>
+  </si>
+  <si>
+    <t>SVC-C17KP</t>
+  </si>
+  <si>
+    <t>Y010</t>
+  </si>
+  <si>
+    <t>PV1020</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 PQ91-3OB</t>
+  </si>
+  <si>
+    <t>DCL182ZW</t>
+  </si>
+  <si>
+    <t>에어슬림 SMA-BV2200</t>
+  </si>
+  <si>
+    <t>NEW F8</t>
+  </si>
+  <si>
+    <t>디제로 D2</t>
+  </si>
+  <si>
+    <t>SVC-DC2200SK</t>
+  </si>
+  <si>
+    <t>T12R</t>
+  </si>
+  <si>
+    <t>로이드미 Z1</t>
+  </si>
+  <si>
+    <t>코드제로 ThinQ A9S 펫 AS9571BPKT</t>
+  </si>
+  <si>
+    <t>스톰파워 VE30</t>
+  </si>
+  <si>
+    <t>RS7</t>
+  </si>
+  <si>
+    <t>글래스 백</t>
+  </si>
+  <si>
+    <t>DWV-DC520WS</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>롤링스턴 SVC-PEV660</t>
+  </si>
+  <si>
+    <t>VH-400WT</t>
+  </si>
+  <si>
+    <t>제트 VS15R8543S1CW</t>
+  </si>
+  <si>
+    <t>AUTO17000</t>
+  </si>
+  <si>
+    <t>HV-5010</t>
+  </si>
+  <si>
+    <t>TPD1420</t>
+  </si>
+  <si>
+    <t>코드제로 이지스틱 S739VA</t>
+  </si>
+  <si>
+    <t>코드엑스</t>
+  </si>
+  <si>
+    <t>AL-6200R</t>
   </si>
   <si>
     <t>TSX-25000A</t>
   </si>
   <si>
-    <t>제트 VS20T9213QDCSW</t>
-  </si>
-  <si>
-    <t>SHUNZAO Z11</t>
-  </si>
-  <si>
-    <t>WELL Q7 WQ71-2OIB</t>
-  </si>
-  <si>
-    <t>드리미 V9</t>
-  </si>
-  <si>
-    <t>ZB3302AK</t>
-  </si>
-  <si>
-    <t>V8 카본파이버</t>
-  </si>
-  <si>
-    <t>D18</t>
-  </si>
-  <si>
-    <t>LH20</t>
-  </si>
-  <si>
-    <t>코드제로 ThinQ A9S 펫 A9700</t>
-  </si>
-  <si>
-    <t>코드제로 ThinQ A9S A9300</t>
-  </si>
-  <si>
-    <t>LCYC913</t>
-  </si>
-  <si>
-    <t>V11 220AW 컴플리트</t>
-  </si>
-  <si>
-    <t>V11 플러피 엑스트라</t>
-  </si>
-  <si>
-    <t>제트 VS20T9257SECS</t>
-  </si>
-  <si>
-    <t>제트 VS20T9213QDCS</t>
-  </si>
-  <si>
-    <t>코드제로 ThinQ A9S A9370</t>
-  </si>
-  <si>
-    <t>코드제로 ThinQ A9S A9400</t>
-  </si>
-  <si>
-    <t>제트 VS20R9078S2</t>
-  </si>
-  <si>
-    <t>V11 플러피</t>
-  </si>
-  <si>
-    <t>제트 VS20R9043QA</t>
-  </si>
-  <si>
-    <t>TROUVER POWER 11</t>
+    <t>더쎈 SVC-ECO150</t>
+  </si>
+  <si>
+    <t>BVC-H10</t>
+  </si>
+  <si>
+    <t>스톰파워 VE12</t>
   </si>
   <si>
     <t>V10 플러피</t>
   </si>
   <si>
-    <t>SHUNZAO Z11 PRO</t>
-  </si>
-  <si>
-    <t>V11 220 에어와트 CF+</t>
-  </si>
-  <si>
-    <t>드리미 V9P</t>
-  </si>
-  <si>
-    <t>DW200</t>
-  </si>
-  <si>
-    <t>WELL Q7 WQ71-2BSWF</t>
-  </si>
-  <si>
-    <t>DWVC-AC800KP</t>
-  </si>
-  <si>
-    <t>VC-H22</t>
-  </si>
-  <si>
-    <t>드리미 V12</t>
-  </si>
-  <si>
-    <t>PURE Q9 PQ92-3BWF</t>
-  </si>
-  <si>
-    <t>WELL Q7 WQ71-2ESSF</t>
-  </si>
-  <si>
-    <t>제트 VS15R8543S1CW</t>
-  </si>
-  <si>
-    <t>TROUVER TECH SOLO10</t>
-  </si>
-  <si>
-    <t>드리미 V10P</t>
-  </si>
-  <si>
-    <t>ZET-10</t>
-  </si>
-  <si>
-    <t>제트 VS20T9257SD</t>
-  </si>
-  <si>
-    <t>V11 컴플리트 엑스트라</t>
-  </si>
-  <si>
-    <t>M500 프로</t>
-  </si>
-  <si>
-    <t>V10 앱솔루트 플러스</t>
-  </si>
-  <si>
-    <t>제트 VS20T9278S3</t>
-  </si>
-  <si>
-    <t>옴니 글라이드+</t>
-  </si>
-  <si>
-    <t>제트 VS15R8577S5CW</t>
-  </si>
-  <si>
-    <t>제트 VS20R9043SA</t>
-  </si>
-  <si>
-    <t>제트 VS20T9278S7</t>
-  </si>
-  <si>
-    <t>WELL Q7 WQ71-2OIBF</t>
-  </si>
-  <si>
-    <t>PURE Q9 PQ92-2OGF</t>
-  </si>
-  <si>
-    <t>제트 VS20T9259SECS</t>
-  </si>
-  <si>
-    <t>코드제로 터보2.0 S87GMW</t>
+    <t>Z10 프로</t>
+  </si>
+  <si>
+    <t>CL100DZ</t>
+  </si>
+  <si>
+    <t>엑스퍼트 3.60 TY6974</t>
+  </si>
+  <si>
+    <t>제트 VS15R8543Q4CW</t>
+  </si>
+  <si>
+    <t>AVC-OTOA6</t>
+  </si>
+  <si>
+    <t>비스포크 제트 VS20A957D3</t>
+  </si>
+  <si>
+    <t>에르고라피도 ZB3512IG</t>
+  </si>
+  <si>
+    <t>비스포크 제트 VS20A957F3</t>
+  </si>
+  <si>
+    <t>제트 VS20T9257SDCC</t>
+  </si>
+  <si>
+    <t>i10</t>
+  </si>
+  <si>
+    <t>H20 HVC-B420K</t>
+  </si>
+  <si>
+    <t>M24 MAX</t>
+  </si>
+  <si>
+    <t>SVC-S4800SJ</t>
+  </si>
+  <si>
+    <t>디지털 슬림 플러피</t>
+  </si>
+  <si>
+    <t>코드제로 ThinQ A9S AS9571</t>
+  </si>
+  <si>
+    <t>H80</t>
   </si>
   <si>
     <t>디어마 VC01</t>
   </si>
   <si>
-    <t>AST-009</t>
-  </si>
-  <si>
-    <t>제트 VS15R8577S5</t>
-  </si>
-  <si>
-    <t>제트 VS15R8547S1CW</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A978</t>
-  </si>
-  <si>
-    <t>AUTO17000</t>
-  </si>
-  <si>
-    <t>NEW F7</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A958</t>
-  </si>
-  <si>
-    <t>에르고라피도 프로 플러스 ZB3113AK</t>
-  </si>
-  <si>
-    <t>제트 VS20R9078S3</t>
-  </si>
-  <si>
-    <t>코드제로 S86</t>
-  </si>
-  <si>
-    <t>에이스 맥스</t>
-  </si>
-  <si>
-    <t>제로</t>
-  </si>
-  <si>
-    <t>V10 모터헤드</t>
-  </si>
-  <si>
-    <t>파워건 150</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>제트 VS20R9048SB</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A938</t>
-  </si>
-  <si>
-    <t>에르고라피도 ZB3323BO</t>
-  </si>
-  <si>
-    <t>L-277</t>
-  </si>
-  <si>
-    <t>제트 VS19R1004BF</t>
-  </si>
-  <si>
-    <t>울트라파워 ZB5022</t>
-  </si>
-  <si>
-    <t>V8 플러피 헤파</t>
-  </si>
-  <si>
-    <t>V8 앱솔루트 플러스</t>
-  </si>
-  <si>
-    <t>V7 플러피 플러스</t>
-  </si>
-  <si>
-    <t>V8 앱솔루트</t>
-  </si>
-  <si>
-    <t>뉴파워건 150</t>
-  </si>
-  <si>
-    <t>에르고라피도 플러스 ZB3105AK</t>
-  </si>
-  <si>
-    <t>V8 앱솔루트 프로</t>
-  </si>
-  <si>
-    <t>울트라파워 ZB5021</t>
-  </si>
-  <si>
-    <t>뉴파워건 130</t>
-  </si>
-  <si>
-    <t>V8 플러피 프로</t>
-  </si>
-  <si>
-    <t>스톰샷 VH806</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A950</t>
-  </si>
-  <si>
-    <t>에르고라피도 ZB3311</t>
-  </si>
-  <si>
-    <t>X20</t>
-  </si>
-  <si>
-    <t>코드제로 S74R</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A930</t>
-  </si>
-  <si>
-    <t>제트 VS20T9257SDCS</t>
-  </si>
-  <si>
-    <t>V8 앱솔루트 엑스트라</t>
-  </si>
-  <si>
-    <t>에르고라피도 ZB3111</t>
-  </si>
-  <si>
-    <t>V6 코드프리 플러스</t>
-  </si>
-  <si>
-    <t>V008 프로</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A940</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A960</t>
-  </si>
-  <si>
-    <t>V8 모터헤드 헤파</t>
-  </si>
-  <si>
-    <t>UVC-1688</t>
-  </si>
-  <si>
-    <t>SRV-2010C</t>
-  </si>
-  <si>
-    <t>엑스퍼트 3.60 TY6933</t>
-  </si>
-  <si>
-    <t>제트 VS15R8544S4CW</t>
-  </si>
-  <si>
-    <t>라피도 ZB6114</t>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>VIOMI A9 V-HWVC12A</t>
+  </si>
+  <si>
+    <t>V7 플러피</t>
+  </si>
+  <si>
+    <t>AST-009 플러스 맥스</t>
+  </si>
+  <si>
+    <t>UVC-1686A</t>
+  </si>
+  <si>
+    <t>THC-1000</t>
+  </si>
+  <si>
+    <t>에어본 화이트 VC-LSS95</t>
+  </si>
+  <si>
+    <t>네오스틱 T300</t>
+  </si>
+  <si>
+    <t>제트 VS20T9279S6</t>
   </si>
   <si>
     <t>코드제로 A9 A9100S + VNZ-PN02N</t>
   </si>
   <si>
-    <t>파워스틱 VS03R6523J2</t>
-  </si>
-  <si>
-    <t>파워스틱 VS60M6010KG</t>
-  </si>
-  <si>
-    <t>GAS18V-1</t>
-  </si>
-  <si>
-    <t>DP-485VC</t>
-  </si>
-  <si>
-    <t>제트 VS20T9278S7CS</t>
-  </si>
-  <si>
-    <t>더 클리너 C01B</t>
-  </si>
-  <si>
-    <t>제트 VS15R8544S4</t>
-  </si>
-  <si>
-    <t>UVC-1685A</t>
-  </si>
-  <si>
-    <t>엑스퍼트 3.60 TY6921</t>
-  </si>
-  <si>
-    <t>제트 VS20T9222K2CS</t>
-  </si>
-  <si>
-    <t>PV1820BK</t>
-  </si>
-  <si>
-    <t>V11 파워 300W</t>
-  </si>
-  <si>
-    <t>GAS10.8V-LI</t>
-  </si>
-  <si>
-    <t>에어포스360 라이트 TY5516KJ</t>
-  </si>
-  <si>
-    <t>디지털 슬림 플러피</t>
+    <t>D008 프로 헤파지움</t>
+  </si>
+  <si>
+    <t>웰스톰 VC150</t>
+  </si>
+  <si>
+    <t>바로바로 MHC-720</t>
+  </si>
+  <si>
+    <t>제트 VS20T9213QDCC</t>
+  </si>
+  <si>
+    <t>DWM-HV74N</t>
+  </si>
+  <si>
+    <t>에르고라피도 베드프로 ZB3323BO</t>
+  </si>
+  <si>
+    <t>i20 엘리트</t>
+  </si>
+  <si>
+    <t>ESR-BH610</t>
+  </si>
+  <si>
+    <t>SVC-R60BCK</t>
+  </si>
+  <si>
+    <t>퓨어 F9 PF91-5EBF</t>
+  </si>
+  <si>
+    <t>오엘라 HV01</t>
+  </si>
+  <si>
+    <t>VH-1600</t>
+  </si>
+  <si>
+    <t>SVC-D900RK</t>
+  </si>
+  <si>
+    <t>V11 토탈클린</t>
+  </si>
+  <si>
+    <t>X30</t>
+  </si>
+  <si>
+    <t>몽땅 BVC201</t>
+  </si>
+  <si>
+    <t>비스포크 제트 VS20A957E2</t>
+  </si>
+  <si>
+    <t>NEW F7 플러스</t>
+  </si>
+  <si>
+    <t>포스 B25</t>
+  </si>
+  <si>
+    <t>에르고라피도 파워프로 ZB3423BO</t>
+  </si>
+  <si>
+    <t>DCL181</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>파워스윙 SWING-8000</t>
+  </si>
+  <si>
+    <t>지미 JV85 Pro</t>
+  </si>
+  <si>
+    <t>SVC-750SG</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 파워프로 PQ92-3EMF</t>
+  </si>
+  <si>
+    <t>스톰건 V12 VC-R201</t>
+  </si>
+  <si>
+    <t>큐텐 BR-Q390RV</t>
+  </si>
+  <si>
+    <t>에르고라피도 베드프로 ZB3324B</t>
   </si>
   <si>
     <t>제트 VS15R8543S1</t>
   </si>
   <si>
-    <t>제트 VS20R9044SC</t>
-  </si>
-  <si>
-    <t>옴니 글라이드</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A9200</t>
-  </si>
-  <si>
-    <t>제트 VS20R9078S2CS</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>드리미 V10 프로</t>
-  </si>
-  <si>
-    <t>DCL180Z</t>
-  </si>
-  <si>
-    <t>ALLNEW22000</t>
-  </si>
-  <si>
-    <t>바로바로 MC-B250</t>
-  </si>
-  <si>
-    <t>V11 플러피+</t>
-  </si>
-  <si>
-    <t>제트 VS20R9044SB</t>
-  </si>
-  <si>
-    <t>M500 퀀텀</t>
-  </si>
-  <si>
-    <t>NEW F8</t>
-  </si>
-  <si>
-    <t>VC-K300W</t>
-  </si>
-  <si>
-    <t>에르고라피도 파워프로 ZB3411</t>
-  </si>
-  <si>
-    <t>PURE F9 PF91-6BWF</t>
-  </si>
-  <si>
-    <t>T400W</t>
-  </si>
-  <si>
-    <t>SVC-1019L</t>
-  </si>
-  <si>
-    <t>BVC-H10</t>
-  </si>
-  <si>
-    <t>CL100DZ</t>
-  </si>
-  <si>
-    <t>Z10 프로</t>
-  </si>
-  <si>
-    <t>에어포스 360 TY9086</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>SVC-D900RK</t>
-  </si>
-  <si>
-    <t>CX-1</t>
-  </si>
-  <si>
-    <t>인스퓨어 파워클론 CVC-A1420UG</t>
-  </si>
-  <si>
-    <t>i20</t>
-  </si>
-  <si>
-    <t>제트 VS20R9074S3</t>
-  </si>
-  <si>
-    <t>PURE F9 PF91-5EBF</t>
-  </si>
-  <si>
-    <t>RS7</t>
-  </si>
-  <si>
-    <t>에르고라피도 ZB3114AK</t>
-  </si>
-  <si>
-    <t>X30</t>
-  </si>
-  <si>
-    <t>에르고라피도 클래식 ZB3501EB</t>
-  </si>
-  <si>
-    <t>H80</t>
-  </si>
-  <si>
-    <t>에르고라피도 ZB3311AK</t>
-  </si>
-  <si>
-    <t>DCL181</t>
-  </si>
-  <si>
-    <t>M500 클래스</t>
-  </si>
-  <si>
-    <t>AVG-LC9600BT</t>
-  </si>
-  <si>
-    <t>PURE Q9 PQ91-2OG</t>
-  </si>
-  <si>
-    <t>THE 500+ AMC-4500</t>
-  </si>
-  <si>
-    <t>TPD1810BGEXT</t>
-  </si>
-  <si>
-    <t>VC-PS86</t>
-  </si>
-  <si>
-    <t>PURE Q9 PQ91-3BW</t>
-  </si>
-  <si>
-    <t>CM-268</t>
-  </si>
-  <si>
-    <t>AST-009 플러스 맥스</t>
-  </si>
-  <si>
-    <t>PURE Q9 PQ92-3EMF</t>
-  </si>
-  <si>
-    <t>VC-LSS95</t>
-  </si>
-  <si>
-    <t>PLA25</t>
-  </si>
-  <si>
-    <t>VC-H71</t>
-  </si>
-  <si>
-    <t>스톰파워 VE30</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>NEW F7 플러스</t>
-  </si>
-  <si>
-    <t>PURE F9 PF91-6XRF</t>
-  </si>
-  <si>
-    <t>ATM-H100</t>
-  </si>
-  <si>
-    <t>EP450</t>
-  </si>
-  <si>
-    <t>에어포스 라이트 TY6545KL</t>
-  </si>
-  <si>
-    <t>글래스 백</t>
-  </si>
-  <si>
-    <t>CVC-A1410UG</t>
-  </si>
-  <si>
-    <t>에어슬림 SMA-BV2200</t>
+    <t>제트 VS20T9258SDCC</t>
   </si>
   <si>
     <t>에르고라피도 파워프로 ZB3426BL</t>
   </si>
   <si>
-    <t>V11 토탈클린</t>
-  </si>
-  <si>
-    <t>VC-K350W</t>
-  </si>
-  <si>
-    <t>DCL182ZW</t>
-  </si>
-  <si>
-    <t>F20 맥스</t>
-  </si>
-  <si>
-    <t>DWVC-DC9180KP</t>
-  </si>
-  <si>
-    <t>VIOMI A9 V-HWVC12A</t>
-  </si>
-  <si>
-    <t>Z20</t>
-  </si>
-  <si>
-    <t>포스 B25</t>
-  </si>
-  <si>
-    <t>제트 VS20T9279S6</t>
-  </si>
-  <si>
-    <t>SVC-680G</t>
-  </si>
-  <si>
-    <t>제트 VS20T9257SE</t>
-  </si>
-  <si>
-    <t>PV1020</t>
-  </si>
-  <si>
-    <t>VC-PS85</t>
-  </si>
-  <si>
-    <t>제트 VS20R9044SBCS</t>
-  </si>
-  <si>
-    <t>WIN-7100VC</t>
-  </si>
-  <si>
-    <t>DVC320B24</t>
-  </si>
-  <si>
-    <t>WELL Q6 WQ61-1EDB</t>
-  </si>
-  <si>
-    <t>코드엑스</t>
-  </si>
-  <si>
-    <t>제트 VS20R9074S2</t>
-  </si>
-  <si>
-    <t>T12R</t>
-  </si>
-  <si>
-    <t>디제로 D2</t>
-  </si>
-  <si>
-    <t>SVC-750SG</t>
-  </si>
-  <si>
-    <t>SVC-650SG</t>
-  </si>
-  <si>
-    <t>SN-XR330V</t>
-  </si>
-  <si>
-    <t>NEW X10 플러스</t>
-  </si>
-  <si>
-    <t>THC-1000</t>
-  </si>
-  <si>
-    <t>코드제로 이지스틱 S739VA</t>
-  </si>
-  <si>
-    <t>V7 플러피</t>
-  </si>
-  <si>
-    <t>PURE Q9 PQ91-3EM</t>
-  </si>
-  <si>
-    <t>VC7212</t>
-  </si>
-  <si>
-    <t>SVC-DC2200SK</t>
-  </si>
-  <si>
-    <t>RS1</t>
-  </si>
-  <si>
-    <t>네오스틱 T1</t>
-  </si>
-  <si>
-    <t>이지에 YE-01</t>
-  </si>
-  <si>
-    <t>DP-480VC</t>
-  </si>
-  <si>
-    <t>얼티메이트</t>
-  </si>
-  <si>
-    <t>코드제로 이지스틱 S749IA</t>
-  </si>
-  <si>
-    <t>에르고라피도 파워프로 ZB3414AK</t>
-  </si>
-  <si>
-    <t>OA-CL010</t>
-  </si>
-  <si>
-    <t>WD7201</t>
-  </si>
-  <si>
-    <t>i20 엘리트</t>
-  </si>
-  <si>
-    <t>스톰건 V12 VC-R201</t>
-  </si>
-  <si>
-    <t>VC7210</t>
-  </si>
-  <si>
-    <t>큐텐 BR-Q390RV</t>
-  </si>
-  <si>
-    <t>SVC-S4800SJ</t>
-  </si>
-  <si>
-    <t>DWM-HV74N</t>
-  </si>
-  <si>
-    <t>BS-14048-VC</t>
-  </si>
-  <si>
-    <t>디어마 VC20S</t>
-  </si>
-  <si>
-    <t>CL106FD</t>
-  </si>
-  <si>
-    <t>RPC-300</t>
-  </si>
-  <si>
-    <t>제트 VS15R8544S4CWB</t>
-  </si>
-  <si>
-    <t>디지털 슬림 플러피 프로</t>
-  </si>
-  <si>
-    <t>AST-009 플러스</t>
-  </si>
-  <si>
-    <t>SVC-R220UB</t>
-  </si>
-  <si>
-    <t>H20 HVC-B420K</t>
-  </si>
-  <si>
-    <t>ZB3301</t>
-  </si>
-  <si>
-    <t>ESR-BH610</t>
-  </si>
-  <si>
-    <t>V10 플러피 프로</t>
-  </si>
-  <si>
-    <t>WELL Q6 WQ61-1EDBF</t>
-  </si>
-  <si>
-    <t>오엘라 HV01</t>
-  </si>
-  <si>
-    <t>제트 VS15R8547S1</t>
-  </si>
-  <si>
-    <t>원더스 다이나킹 Z9</t>
-  </si>
-  <si>
-    <t>에르고라피도 ZB3316AK</t>
-  </si>
-  <si>
-    <t>V10 카본파이버 프로</t>
-  </si>
-  <si>
-    <t>LCZ858</t>
-  </si>
-  <si>
-    <t>PURE F9 PF91-5OGF</t>
-  </si>
-  <si>
-    <t>제트 VS15R8548S5CWB</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A947</t>
-  </si>
-  <si>
-    <t>파워스틱 VS60K6081KD</t>
-  </si>
-  <si>
-    <t>G20</t>
-  </si>
-  <si>
-    <t>드리미 VC11</t>
-  </si>
-  <si>
-    <t>파워 익스트림 TBSV2020</t>
-  </si>
-  <si>
-    <t>SVC-PB195BUP</t>
-  </si>
-  <si>
-    <t>V11 컴플리트 프로</t>
-  </si>
-  <si>
-    <t>HV-1000</t>
-  </si>
-  <si>
-    <t>DVA320BF</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A951</t>
-  </si>
-  <si>
-    <t>VH-400WT</t>
-  </si>
-  <si>
-    <t>i10</t>
-  </si>
-  <si>
-    <t>A20</t>
-  </si>
-  <si>
-    <t>파워 당구대 전용 청소기</t>
-  </si>
-  <si>
-    <t>PURE Q9 PQ91-3OB</t>
-  </si>
-  <si>
-    <t>CX11</t>
-  </si>
-  <si>
-    <t>AL-3300NF</t>
-  </si>
-  <si>
-    <t>DWV-DC520WS</t>
-  </si>
-  <si>
-    <t>EST-VX100</t>
-  </si>
-  <si>
-    <t>V8 슬림 플러피+</t>
-  </si>
-  <si>
-    <t>CL107FDZW</t>
-  </si>
-  <si>
-    <t>VH-1600</t>
-  </si>
-  <si>
-    <t>V10 앱솔루트</t>
-  </si>
-  <si>
-    <t>V11 토크 드라이브 플러스</t>
-  </si>
-  <si>
-    <t>에어포스 라이트 TY6544</t>
-  </si>
-  <si>
-    <t>SVC-ECO150</t>
-  </si>
-  <si>
-    <t>에어 RSC-100</t>
-  </si>
-  <si>
-    <t>T300</t>
-  </si>
-  <si>
-    <t>MHC-720</t>
-  </si>
-  <si>
-    <t>VC-H20</t>
+    <t>D18 플러스</t>
+  </si>
+  <si>
+    <t>제트 VS20T9257SECC</t>
+  </si>
+  <si>
+    <t>제트 VS20T9248SB</t>
   </si>
   <si>
     <t>AT-H12V</t>
   </si>
   <si>
-    <t>SVC-499WS</t>
-  </si>
-  <si>
-    <t>라피도 ZB5106</t>
-  </si>
-  <si>
-    <t>BS-1614-VC</t>
-  </si>
-  <si>
-    <t>일렉트로맨 HS103</t>
+    <t>V20 플러스</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1527,16 +1458,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>149940</v>
+        <v>1219270</v>
       </c>
       <c r="E2">
         <v>60</v>
       </c>
       <c r="F2">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1544,19 +1475,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>923930</v>
+        <v>488350</v>
       </c>
       <c r="E3">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1564,19 +1495,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>399830</v>
+        <v>798940</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>150</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1587,16 +1518,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>898990</v>
+        <v>153660</v>
       </c>
       <c r="E5">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F5">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1604,13 +1535,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>716680</v>
+        <v>586510</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -1624,19 +1555,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>242730</v>
+        <v>136590</v>
       </c>
       <c r="E7">
-        <v>90</v>
-      </c>
-      <c r="F7">
-        <v>250</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1644,16 +1572,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D8">
-        <v>164000</v>
+        <v>614200</v>
       </c>
       <c r="E8">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1661,16 +1592,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>479000</v>
+        <v>145420</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1678,19 +1609,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>613200</v>
+        <v>678780</v>
       </c>
       <c r="E10">
         <v>60</v>
-      </c>
-      <c r="F10">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1698,16 +1626,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D11">
-        <v>913500</v>
+        <v>883810</v>
       </c>
       <c r="E11">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F11">
         <v>200</v>
@@ -1718,16 +1646,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D12">
-        <v>780180</v>
+        <v>108760</v>
       </c>
       <c r="E12">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F12">
         <v>200</v>
@@ -1738,16 +1666,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D13">
-        <v>829590</v>
+        <v>634540</v>
       </c>
       <c r="E13">
-        <v>120</v>
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1755,19 +1686,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D14">
-        <v>489490</v>
+        <v>1050960</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F14">
-        <v>155</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1775,19 +1706,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D15">
-        <v>807020</v>
+        <v>1051220</v>
       </c>
       <c r="E15">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F15">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1795,19 +1726,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D16">
-        <v>714400</v>
+        <v>1082100</v>
       </c>
       <c r="E16">
-        <v>40</v>
-      </c>
-      <c r="F16">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1815,19 +1743,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D17">
-        <v>650170</v>
-      </c>
-      <c r="E17">
-        <v>60</v>
-      </c>
-      <c r="F17">
-        <v>200</v>
+        <v>34700</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1838,16 +1760,16 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D18">
-        <v>542010</v>
+        <v>496220</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1855,16 +1777,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D19">
-        <v>827630</v>
+        <v>712450</v>
       </c>
       <c r="E19">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F19">
         <v>200</v>
@@ -1875,19 +1797,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D20">
-        <v>857890</v>
+        <v>388340</v>
       </c>
       <c r="E20">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1898,13 +1820,13 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D21">
-        <v>315270</v>
+        <v>214000</v>
       </c>
       <c r="E21">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1912,19 +1834,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D22">
-        <v>192920</v>
+        <v>753180</v>
       </c>
       <c r="E22">
-        <v>45</v>
-      </c>
-      <c r="F22">
-        <v>250</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1932,19 +1851,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D23">
-        <v>712620</v>
+        <v>947940</v>
       </c>
       <c r="E23">
         <v>60</v>
       </c>
       <c r="F23">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1952,19 +1871,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D24">
-        <v>159000</v>
+        <v>124890</v>
       </c>
       <c r="E24">
-        <v>60</v>
-      </c>
-      <c r="F24">
-        <v>260</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1972,16 +1888,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D25">
-        <v>250920</v>
+        <v>145100</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1989,19 +1908,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D26">
-        <v>112500</v>
+        <v>621670</v>
       </c>
       <c r="E26">
         <v>60</v>
       </c>
       <c r="F26">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2009,16 +1928,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D27">
-        <v>147800</v>
+        <v>1229600</v>
       </c>
       <c r="E27">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2026,19 +1945,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D28">
-        <v>479000</v>
+        <v>639790</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F28">
-        <v>155</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2046,19 +1965,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D29">
-        <v>67900</v>
+        <v>566810</v>
       </c>
       <c r="E29">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F29">
-        <v>90</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2066,19 +1985,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D30">
-        <v>299000</v>
+        <v>822320</v>
       </c>
       <c r="E30">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F30">
-        <v>330</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2086,19 +2005,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D31">
-        <v>1016930</v>
+        <v>1060150</v>
       </c>
       <c r="E31">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F31">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2106,19 +2025,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D32">
-        <v>705770</v>
+        <v>381200</v>
       </c>
       <c r="E32">
-        <v>60</v>
-      </c>
-      <c r="F32">
-        <v>200</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2126,36 +2042,36 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D33">
-        <v>27800</v>
+        <v>474690</v>
       </c>
       <c r="E33">
         <v>20</v>
       </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D34">
-        <v>859190</v>
+        <v>36740</v>
       </c>
       <c r="E34">
-        <v>60</v>
-      </c>
-      <c r="F34">
-        <v>220</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2163,19 +2079,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D35">
-        <v>841390</v>
+        <v>38190</v>
       </c>
       <c r="E35">
-        <v>60</v>
-      </c>
-      <c r="F35">
-        <v>220</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2183,16 +2096,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D36">
-        <v>739906</v>
+        <v>916300</v>
       </c>
       <c r="E36">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F36">
         <v>200</v>
@@ -2203,19 +2116,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D37">
-        <v>623460</v>
+        <v>28680</v>
       </c>
       <c r="E37">
-        <v>60</v>
-      </c>
-      <c r="F37">
-        <v>200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2223,19 +2133,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D38">
-        <v>776430</v>
+        <v>248000</v>
       </c>
       <c r="E38">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F38">
-        <v>200</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2246,16 +2156,16 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D39">
-        <v>747670</v>
+        <v>1445890</v>
       </c>
       <c r="E39">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F39">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2263,19 +2173,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D40">
-        <v>695270</v>
+        <v>952950</v>
       </c>
       <c r="E40">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F40">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2286,16 +2196,16 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D41">
-        <v>827950</v>
+        <v>479000</v>
       </c>
       <c r="E41">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2303,19 +2213,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D42">
-        <v>552170</v>
+        <v>169000</v>
       </c>
       <c r="E42">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F42">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2323,16 +2233,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D43">
-        <v>134840</v>
+        <v>341400</v>
       </c>
       <c r="E43">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2340,16 +2250,19 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D44">
-        <v>622890</v>
+        <v>831560</v>
       </c>
       <c r="E44">
         <v>60</v>
+      </c>
+      <c r="F44">
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2357,19 +2270,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D45">
-        <v>198990</v>
+        <v>226580</v>
       </c>
       <c r="E45">
-        <v>60</v>
-      </c>
-      <c r="F45">
-        <v>260</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2377,19 +2287,19 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D46">
-        <v>1085400</v>
+        <v>850000</v>
       </c>
       <c r="E46">
         <v>60</v>
       </c>
       <c r="F46">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2397,19 +2307,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D47">
-        <v>158210</v>
+        <v>72930</v>
       </c>
       <c r="E47">
-        <v>60</v>
-      </c>
-      <c r="F47">
-        <v>200</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2417,19 +2324,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D48">
-        <v>66340</v>
+        <v>631690</v>
       </c>
       <c r="E48">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F48">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2437,16 +2344,19 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D49">
-        <v>347640</v>
+        <v>230000</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="F49">
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2454,13 +2364,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D50">
-        <v>24120</v>
+        <v>298200</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2468,16 +2381,19 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D51">
-        <v>28440</v>
+        <v>891700</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="F51">
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2485,19 +2401,19 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D52">
-        <v>308770</v>
+        <v>1186750</v>
       </c>
       <c r="E52">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F52">
-        <v>270</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2505,16 +2421,19 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D53">
-        <v>436160</v>
+        <v>1274000</v>
       </c>
       <c r="E53">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="F53">
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2522,16 +2441,19 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D54">
-        <v>260140</v>
+        <v>604380</v>
       </c>
       <c r="E54">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="F54">
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2542,16 +2464,16 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D55">
-        <v>519320</v>
+        <v>319000</v>
       </c>
       <c r="E55">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F55">
-        <v>150</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2559,19 +2481,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D56">
-        <v>94760</v>
+        <v>316200</v>
       </c>
       <c r="E56">
-        <v>48</v>
-      </c>
-      <c r="F56">
-        <v>180</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2579,19 +2498,19 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D57">
-        <v>235000</v>
+        <v>78680</v>
       </c>
       <c r="E57">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F57">
-        <v>220</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2599,13 +2518,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D58">
-        <v>189000</v>
+        <v>296620</v>
+      </c>
+      <c r="E58">
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2613,16 +2535,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D59">
-        <v>645010</v>
+        <v>694950</v>
       </c>
       <c r="E59">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F59">
         <v>200</v>
@@ -2633,19 +2555,19 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D60">
-        <v>801000</v>
+        <v>70720</v>
       </c>
       <c r="E60">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F60">
-        <v>220</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2653,19 +2575,19 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D61">
-        <v>178990</v>
+        <v>232990</v>
       </c>
       <c r="E61">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F61">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2673,16 +2595,19 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D62">
-        <v>868540</v>
+        <v>600780</v>
       </c>
       <c r="E62">
         <v>60</v>
+      </c>
+      <c r="F62">
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2690,19 +2615,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D63">
-        <v>748060</v>
+        <v>237450</v>
       </c>
       <c r="E63">
-        <v>120</v>
-      </c>
-      <c r="F63">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2710,39 +2632,36 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D64">
-        <v>496390</v>
+        <v>29310</v>
       </c>
       <c r="E64">
         <v>20</v>
       </c>
-      <c r="F64">
-        <v>50</v>
-      </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D65">
-        <v>649000</v>
+        <v>299000</v>
       </c>
       <c r="E65">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F65">
-        <v>150</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2750,19 +2669,13 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D66">
-        <v>553190</v>
-      </c>
-      <c r="E66">
-        <v>60</v>
-      </c>
-      <c r="F66">
-        <v>200</v>
+        <v>17850</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2770,19 +2683,19 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D67">
-        <v>853760</v>
+        <v>108000</v>
       </c>
       <c r="E67">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="F67">
-        <v>200</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2790,16 +2703,19 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D68">
-        <v>269880</v>
+        <v>169000</v>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="F68">
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2807,16 +2723,19 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D69">
-        <v>367920</v>
+        <v>869930</v>
       </c>
       <c r="E69">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="F69">
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2824,19 +2743,19 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D70">
-        <v>888600</v>
+        <v>59900</v>
       </c>
       <c r="E70">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="F70">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2844,16 +2763,19 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D71">
-        <v>505460</v>
+        <v>966530</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="F71">
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2864,13 +2786,13 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D72">
-        <v>48000</v>
+        <v>407000</v>
       </c>
       <c r="E72">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2878,19 +2800,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D73">
-        <v>118000</v>
+        <v>348770</v>
       </c>
       <c r="E73">
-        <v>40</v>
-      </c>
-      <c r="F73">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2898,19 +2817,13 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D74">
-        <v>575000</v>
-      </c>
-      <c r="E74">
-        <v>80</v>
-      </c>
-      <c r="F74">
-        <v>150</v>
+        <v>217270</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2918,19 +2831,19 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D75">
-        <v>561837</v>
+        <v>258000</v>
       </c>
       <c r="E75">
         <v>40</v>
       </c>
       <c r="F75">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2938,19 +2851,19 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D76">
-        <v>1000390</v>
+        <v>611720</v>
       </c>
       <c r="E76">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F76">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2958,16 +2871,19 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C77" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D77">
-        <v>92070</v>
+        <v>278950</v>
+      </c>
+      <c r="E77">
+        <v>60</v>
       </c>
       <c r="F77">
-        <v>170</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2975,19 +2891,19 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D78">
-        <v>185250</v>
+        <v>557204</v>
       </c>
       <c r="E78">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F78">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2998,16 +2914,16 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D79">
-        <v>888440</v>
+        <v>538590</v>
       </c>
       <c r="E79">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F79">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3015,16 +2931,16 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D80">
-        <v>284990</v>
+        <v>884070</v>
       </c>
       <c r="E80">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3032,19 +2948,19 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D81">
-        <v>726950</v>
+        <v>135260</v>
       </c>
       <c r="E81">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F81">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3055,13 +2971,16 @@
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D82">
-        <v>926760</v>
+        <v>808650</v>
       </c>
       <c r="E82">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F82">
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3069,19 +2988,16 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D83">
-        <v>131820</v>
+        <v>519000</v>
       </c>
       <c r="E83">
-        <v>30</v>
-      </c>
-      <c r="F83">
-        <v>190</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3089,19 +3005,19 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D84">
-        <v>221040</v>
+        <v>1300000</v>
       </c>
       <c r="E84">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F84">
-        <v>220</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3109,16 +3025,19 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D85">
-        <v>530100</v>
+        <v>759000</v>
       </c>
       <c r="E85">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="F85">
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3126,19 +3045,16 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D86">
-        <v>562250</v>
+        <v>298950</v>
       </c>
       <c r="E86">
-        <v>40</v>
-      </c>
-      <c r="F86">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3146,16 +3062,19 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D87">
-        <v>362700</v>
+        <v>688790</v>
+      </c>
+      <c r="E87">
+        <v>40</v>
       </c>
       <c r="F87">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3163,19 +3082,19 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D88">
-        <v>649800</v>
+        <v>185250</v>
       </c>
       <c r="E88">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F88">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3183,36 +3102,36 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D89">
-        <v>708060</v>
+        <v>970000</v>
       </c>
       <c r="E89">
         <v>40</v>
       </c>
-      <c r="F89">
-        <v>140</v>
-      </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D90">
-        <v>185580</v>
+        <v>649500</v>
       </c>
       <c r="E90">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="F90">
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3220,39 +3139,36 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D91">
-        <v>219000</v>
+        <v>355420</v>
       </c>
       <c r="E91">
         <v>30</v>
       </c>
-      <c r="F91">
-        <v>160</v>
-      </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D92">
-        <v>685850</v>
+        <v>681010</v>
       </c>
       <c r="E92">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F92">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3260,16 +3176,19 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D93">
-        <v>700000</v>
+        <v>889950</v>
       </c>
       <c r="E93">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="F93">
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3277,19 +3196,19 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D94">
-        <v>1128000</v>
+        <v>598000</v>
       </c>
       <c r="E94">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F94">
-        <v>115</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3297,19 +3216,19 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D95">
-        <v>749990</v>
+        <v>260600</v>
       </c>
       <c r="E95">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F95">
-        <v>115</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3317,19 +3236,19 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D96">
-        <v>624420</v>
+        <v>470600</v>
       </c>
       <c r="E96">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F96">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3337,36 +3256,39 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D97">
-        <v>567380</v>
+        <v>879900</v>
       </c>
       <c r="E97">
         <v>40</v>
       </c>
+      <c r="F97">
+        <v>140</v>
+      </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D98">
-        <v>674990</v>
+        <v>807500</v>
       </c>
       <c r="E98">
         <v>40</v>
       </c>
       <c r="F98">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3374,16 +3296,19 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D99">
-        <v>299000</v>
+        <v>1550000</v>
       </c>
       <c r="E99">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="F99">
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3391,19 +3316,13 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C100" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D100">
-        <v>781720</v>
-      </c>
-      <c r="E100">
-        <v>40</v>
-      </c>
-      <c r="F100">
-        <v>155</v>
+        <v>109500</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3411,16 +3330,19 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D101">
-        <v>369220</v>
+        <v>1128000</v>
       </c>
       <c r="E101">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="F101">
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3428,19 +3350,16 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D102">
-        <v>538000</v>
+        <v>1221120</v>
       </c>
       <c r="E102">
-        <v>40</v>
-      </c>
-      <c r="F102">
-        <v>130</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3448,19 +3367,16 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D103">
-        <v>659990</v>
+        <v>369220</v>
       </c>
       <c r="E103">
-        <v>40</v>
-      </c>
-      <c r="F103">
-        <v>155</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3468,13 +3384,16 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C104" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D104">
-        <v>109500</v>
+        <v>332090</v>
+      </c>
+      <c r="E104">
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3482,19 +3401,19 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D105">
-        <v>1020390</v>
+        <v>749990</v>
       </c>
       <c r="E105">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F105">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3502,16 +3421,19 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D106">
-        <v>146560</v>
+        <v>799000</v>
       </c>
       <c r="E106">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="F106">
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3519,19 +3441,19 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D107">
-        <v>217490</v>
+        <v>650000</v>
       </c>
       <c r="E107">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F107">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3539,16 +3461,19 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D108">
-        <v>900000</v>
+        <v>702100</v>
       </c>
       <c r="E108">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="F108">
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3556,19 +3481,19 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D109">
-        <v>204600</v>
+        <v>483600</v>
       </c>
       <c r="E109">
         <v>40</v>
       </c>
       <c r="F109">
-        <v>70</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3576,19 +3501,19 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D110">
-        <v>1200000</v>
+        <v>696990</v>
       </c>
       <c r="E110">
         <v>40</v>
       </c>
       <c r="F110">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3596,19 +3521,16 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D111">
-        <v>745280</v>
+        <v>700000</v>
       </c>
       <c r="E111">
-        <v>120</v>
-      </c>
-      <c r="F111">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3619,33 +3541,33 @@
         <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D112">
-        <v>723970</v>
+        <v>613800</v>
       </c>
       <c r="E112">
         <v>40</v>
       </c>
-      <c r="F112">
-        <v>155</v>
-      </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D113">
-        <v>1237020</v>
+        <v>216380</v>
       </c>
       <c r="E113">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="F113">
+        <v>220</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3656,10 +3578,10 @@
         <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D114">
-        <v>879070</v>
+        <v>869140</v>
       </c>
       <c r="E114">
         <v>20</v>
@@ -3673,19 +3595,19 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D115">
-        <v>179000</v>
+        <v>670000</v>
       </c>
       <c r="E115">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F115">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3696,16 +3618,16 @@
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D116">
-        <v>999990</v>
+        <v>960550</v>
       </c>
       <c r="E116">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F116">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3716,16 +3638,16 @@
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D117">
-        <v>1550000</v>
+        <v>1000000</v>
       </c>
       <c r="E117">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F117">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3733,19 +3655,19 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D118">
-        <v>1443000</v>
+        <v>1440150</v>
       </c>
       <c r="E118">
         <v>40</v>
       </c>
       <c r="F118">
-        <v>115</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3753,13 +3675,19 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D119">
-        <v>18020</v>
+        <v>1200000</v>
+      </c>
+      <c r="E119">
+        <v>40</v>
+      </c>
+      <c r="F119">
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3767,19 +3695,19 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D120">
-        <v>75870</v>
+        <v>242730</v>
       </c>
       <c r="E120">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F120">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3787,16 +3715,16 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D121">
-        <v>208380</v>
+        <v>277480</v>
       </c>
       <c r="E121">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3804,19 +3732,16 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D122">
-        <v>548990</v>
+        <v>180890</v>
       </c>
       <c r="E122">
-        <v>40</v>
-      </c>
-      <c r="F122">
-        <v>150</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3824,16 +3749,19 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D123">
-        <v>78300</v>
+        <v>228000</v>
       </c>
       <c r="E123">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="F123">
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3841,16 +3769,13 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C124" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D124">
-        <v>710710</v>
-      </c>
-      <c r="E124">
-        <v>40</v>
+        <v>36190</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3858,13 +3783,13 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D125">
-        <v>258240</v>
+        <v>32700</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3872,16 +3797,19 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D126">
-        <v>153770</v>
+        <v>790000</v>
       </c>
       <c r="E126">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F126">
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3889,16 +3817,16 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D127">
-        <v>64306</v>
+        <v>122620</v>
       </c>
       <c r="E127">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3906,13 +3834,19 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D128">
-        <v>20700</v>
+        <v>530955</v>
+      </c>
+      <c r="E128">
+        <v>60</v>
+      </c>
+      <c r="F128">
+        <v>200</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3920,19 +3854,16 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D129">
-        <v>960200</v>
+        <v>155000</v>
       </c>
       <c r="E129">
-        <v>120</v>
-      </c>
-      <c r="F129">
-        <v>200</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3940,16 +3871,19 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C130" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D130">
-        <v>588730</v>
+        <v>87530</v>
       </c>
       <c r="E130">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="F130">
+        <v>35</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3957,19 +3891,16 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C131" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D131">
-        <v>497540</v>
+        <v>63890</v>
       </c>
       <c r="E131">
-        <v>40</v>
-      </c>
-      <c r="F131">
-        <v>150</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3977,13 +3908,19 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D132">
-        <v>31940</v>
+        <v>1016810</v>
+      </c>
+      <c r="E132">
+        <v>40</v>
+      </c>
+      <c r="F132">
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3991,16 +3928,19 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C133" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D133">
-        <v>214000</v>
+        <v>514950</v>
       </c>
       <c r="E133">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="F133">
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4008,19 +3948,16 @@
         <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D134">
-        <v>799000</v>
+        <v>129620</v>
       </c>
       <c r="E134">
-        <v>60</v>
-      </c>
-      <c r="F134">
-        <v>200</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4028,19 +3965,19 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D135">
-        <v>84640</v>
+        <v>227050</v>
       </c>
       <c r="E135">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F135">
-        <v>35</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4048,19 +3985,19 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C136" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D136">
-        <v>129000</v>
+        <v>335350</v>
       </c>
       <c r="E136">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F136">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4068,16 +4005,19 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D137">
-        <v>38000</v>
+        <v>615120</v>
       </c>
       <c r="E137">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="F137">
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4085,16 +4025,19 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D138">
-        <v>389000</v>
+        <v>572930</v>
       </c>
       <c r="E138">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="F138">
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4102,19 +4045,19 @@
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D139">
-        <v>679230</v>
+        <v>177990</v>
       </c>
       <c r="E139">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F139">
-        <v>100</v>
+        <v>220</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4122,19 +4065,16 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D140">
-        <v>444420</v>
+        <v>159850</v>
       </c>
       <c r="E140">
-        <v>40</v>
-      </c>
-      <c r="F140">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4142,13 +4082,13 @@
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D141">
-        <v>581950</v>
+        <v>468270</v>
       </c>
       <c r="E141">
         <v>60</v>
@@ -4162,19 +4102,16 @@
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D142">
-        <v>529390</v>
+        <v>60940</v>
       </c>
       <c r="E142">
-        <v>20</v>
-      </c>
-      <c r="F142">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4182,16 +4119,13 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C143" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D143">
-        <v>629950</v>
-      </c>
-      <c r="E143">
-        <v>40</v>
+        <v>19850</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4199,19 +4133,19 @@
         <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C144" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D144">
-        <v>788030</v>
+        <v>79000</v>
       </c>
       <c r="E144">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="F144">
-        <v>200</v>
+        <v>130</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4219,19 +4153,19 @@
         <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D145">
-        <v>429000</v>
+        <v>406100</v>
       </c>
       <c r="E145">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="F145">
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4239,19 +4173,16 @@
         <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C146" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D146">
-        <v>255890</v>
+        <v>175420</v>
       </c>
       <c r="E146">
-        <v>60</v>
-      </c>
-      <c r="F146">
-        <v>220</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4259,16 +4190,16 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
+        <v>33</v>
+      </c>
+      <c r="C147" t="s">
+        <v>210</v>
+      </c>
+      <c r="D147">
+        <v>109000</v>
+      </c>
+      <c r="E147">
         <v>30</v>
-      </c>
-      <c r="C147" t="s">
-        <v>218</v>
-      </c>
-      <c r="D147">
-        <v>36379</v>
-      </c>
-      <c r="E147">
-        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4276,19 +4207,16 @@
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C148" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D148">
-        <v>174000</v>
+        <v>189000</v>
       </c>
       <c r="E148">
-        <v>30</v>
-      </c>
-      <c r="F148">
-        <v>220</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4296,16 +4224,19 @@
         <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C149" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D149">
-        <v>37720</v>
+        <v>299000</v>
       </c>
       <c r="E149">
-        <v>20</v>
+        <v>120</v>
+      </c>
+      <c r="F149">
+        <v>330</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4313,19 +4244,19 @@
         <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D150">
-        <v>854690</v>
+        <v>356150</v>
       </c>
       <c r="E150">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F150">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4333,19 +4264,16 @@
         <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C151" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D151">
-        <v>521100</v>
+        <v>73470</v>
       </c>
       <c r="E151">
-        <v>60</v>
-      </c>
-      <c r="F151">
-        <v>200</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4353,19 +4281,16 @@
         <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D152">
-        <v>238000</v>
+        <v>91030</v>
       </c>
       <c r="E152">
-        <v>50</v>
-      </c>
-      <c r="F152">
-        <v>250</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4373,19 +4298,19 @@
         <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D153">
-        <v>199000</v>
+        <v>651610</v>
       </c>
       <c r="E153">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F153">
-        <v>290</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4393,19 +4318,13 @@
         <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C154" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D154">
-        <v>96880</v>
-      </c>
-      <c r="E154">
-        <v>40</v>
-      </c>
-      <c r="F154">
-        <v>220</v>
+        <v>20160</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4413,16 +4332,16 @@
         <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D155">
-        <v>194490</v>
+        <v>109950</v>
       </c>
       <c r="E155">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4430,16 +4349,19 @@
         <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C156" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D156">
-        <v>404450</v>
+        <v>1162500</v>
       </c>
       <c r="E156">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="F156">
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4447,16 +4369,19 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D157">
-        <v>159000</v>
+        <v>73420</v>
       </c>
       <c r="E157">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="F157">
+        <v>120</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4464,18 +4389,15 @@
         <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C158" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D158">
-        <v>68990</v>
+        <v>99900</v>
       </c>
       <c r="E158">
-        <v>20</v>
-      </c>
-      <c r="F158">
         <v>45</v>
       </c>
     </row>
@@ -4484,19 +4406,19 @@
         <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C159" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D159">
-        <v>42800</v>
+        <v>106670</v>
       </c>
       <c r="E159">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F159">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4504,16 +4426,16 @@
         <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D160">
-        <v>30690</v>
+        <v>56370</v>
       </c>
       <c r="E160">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4521,19 +4443,13 @@
         <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D161">
-        <v>109230</v>
-      </c>
-      <c r="E161">
-        <v>30</v>
-      </c>
-      <c r="F161">
-        <v>180</v>
+        <v>199000</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4541,16 +4457,19 @@
         <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C162" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D162">
-        <v>245630</v>
+        <v>139000</v>
       </c>
       <c r="E162">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="F162">
+        <v>190</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4558,19 +4477,16 @@
         <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C163" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D163">
-        <v>68000</v>
+        <v>22100</v>
       </c>
       <c r="E163">
-        <v>25</v>
-      </c>
-      <c r="F163">
-        <v>130</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4578,16 +4494,19 @@
         <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D164">
-        <v>30680</v>
+        <v>209000</v>
       </c>
       <c r="E164">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="F164">
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4595,19 +4514,19 @@
         <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C165" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D165">
-        <v>85810</v>
+        <v>99000</v>
       </c>
       <c r="E165">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F165">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4615,19 +4534,13 @@
         <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D166">
-        <v>339150</v>
-      </c>
-      <c r="E166">
-        <v>35</v>
-      </c>
-      <c r="F166">
-        <v>230</v>
+        <v>247650</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4635,16 +4548,19 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D167">
-        <v>238000</v>
+        <v>141300</v>
       </c>
       <c r="E167">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="F167">
+        <v>200</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4652,19 +4568,19 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C168" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D168">
-        <v>615300</v>
+        <v>107950</v>
       </c>
       <c r="E168">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="F168">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4672,16 +4588,13 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C169" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D169">
-        <v>261560</v>
-      </c>
-      <c r="E169">
-        <v>55</v>
+        <v>39800</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4689,16 +4602,19 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D170">
-        <v>186510</v>
+        <v>789790</v>
+      </c>
+      <c r="E170">
+        <v>60</v>
       </c>
       <c r="F170">
-        <v>260</v>
+        <v>200</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4706,16 +4622,19 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D171">
-        <v>236070</v>
+        <v>643010</v>
       </c>
       <c r="E171">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="F171">
+        <v>150</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4723,19 +4642,16 @@
         <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C172" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D172">
-        <v>229000</v>
+        <v>50230</v>
       </c>
       <c r="E172">
-        <v>50</v>
-      </c>
-      <c r="F172">
-        <v>250</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4743,16 +4659,16 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D173">
-        <v>136160</v>
+        <v>598210</v>
       </c>
       <c r="E173">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4760,36 +4676,36 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C174" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D174">
-        <v>49800</v>
+        <v>107940</v>
       </c>
       <c r="E174">
         <v>30</v>
       </c>
-      <c r="F174">
-        <v>60</v>
-      </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D175">
-        <v>205340</v>
+        <v>651700</v>
       </c>
       <c r="E175">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="F175">
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4797,13 +4713,13 @@
         <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C176" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D176">
-        <v>64310</v>
+        <v>139000</v>
       </c>
       <c r="E176">
         <v>40</v>
@@ -4814,19 +4730,16 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C177" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D177">
-        <v>246000</v>
+        <v>36800</v>
       </c>
       <c r="E177">
-        <v>50</v>
-      </c>
-      <c r="F177">
-        <v>200</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4834,16 +4747,16 @@
         <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C178" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D178">
-        <v>138980</v>
-      </c>
-      <c r="F178">
-        <v>210</v>
+        <v>27240</v>
+      </c>
+      <c r="E178">
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4851,16 +4764,19 @@
         <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D179">
-        <v>228840</v>
+        <v>708880</v>
       </c>
       <c r="E179">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="F179">
+        <v>150</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4868,16 +4784,16 @@
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C180" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D180">
-        <v>279000</v>
+        <v>322970</v>
       </c>
       <c r="E180">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4885,16 +4801,19 @@
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C181" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D181">
-        <v>89890</v>
+        <v>69000</v>
       </c>
       <c r="E181">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="F181">
+        <v>45</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4902,16 +4821,19 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D182">
-        <v>70710</v>
+        <v>814480</v>
       </c>
       <c r="E182">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="F182">
+        <v>220</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4919,16 +4841,19 @@
         <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C183" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D183">
-        <v>279610</v>
+        <v>128310</v>
       </c>
       <c r="E183">
-        <v>55</v>
+        <v>70</v>
+      </c>
+      <c r="F183">
+        <v>220</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4936,16 +4861,16 @@
         <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C184" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D184">
-        <v>20420</v>
+        <v>32800</v>
       </c>
       <c r="E184">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4953,16 +4878,19 @@
         <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C185" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D185">
-        <v>117950</v>
+        <v>179000</v>
+      </c>
+      <c r="E185">
+        <v>50</v>
       </c>
       <c r="F185">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4973,13 +4901,13 @@
         <v>10</v>
       </c>
       <c r="C186" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D186">
-        <v>369910</v>
+        <v>222370</v>
       </c>
       <c r="E186">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4990,13 +4918,16 @@
         <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D187">
-        <v>92140</v>
+        <v>99420</v>
       </c>
       <c r="E187">
-        <v>18</v>
+        <v>48</v>
+      </c>
+      <c r="F187">
+        <v>180</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5004,19 +4935,19 @@
         <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D188">
-        <v>199000</v>
+        <v>202830</v>
       </c>
       <c r="E188">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F188">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5024,16 +4955,16 @@
         <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C189" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D189">
-        <v>63060</v>
+        <v>249000</v>
       </c>
       <c r="E189">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5041,19 +4972,16 @@
         <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C190" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D190">
-        <v>233000</v>
+        <v>77390</v>
       </c>
       <c r="E190">
-        <v>40</v>
-      </c>
-      <c r="F190">
-        <v>250</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5061,19 +4989,19 @@
         <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C191" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D191">
-        <v>136000</v>
+        <v>285940</v>
       </c>
       <c r="E191">
         <v>35</v>
       </c>
       <c r="F191">
-        <v>25</v>
+        <v>230</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5081,16 +5009,16 @@
         <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D192">
-        <v>169000</v>
+        <v>879700</v>
       </c>
       <c r="E192">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F192">
         <v>220</v>
@@ -5101,16 +5029,13 @@
         <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C193" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D193">
-        <v>363040</v>
-      </c>
-      <c r="E193">
-        <v>60</v>
+        <v>37150</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5118,13 +5043,16 @@
         <v>6</v>
       </c>
       <c r="B194" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C194" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D194">
-        <v>28700</v>
+        <v>250200</v>
+      </c>
+      <c r="E194">
+        <v>57</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5132,19 +5060,16 @@
         <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C195" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D195">
-        <v>134720</v>
+        <v>65440</v>
       </c>
       <c r="E195">
-        <v>42</v>
-      </c>
-      <c r="F195">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5152,16 +5077,16 @@
         <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C196" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D196">
-        <v>96520</v>
+        <v>241750</v>
       </c>
       <c r="E196">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5169,16 +5094,16 @@
         <v>6</v>
       </c>
       <c r="B197" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C197" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D197">
-        <v>114390</v>
+        <v>37990</v>
       </c>
       <c r="E197">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5186,19 +5111,19 @@
         <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C198" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D198">
-        <v>367950</v>
+        <v>489740</v>
       </c>
       <c r="E198">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F198">
-        <v>230</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5206,19 +5131,19 @@
         <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C199" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D199">
-        <v>509950</v>
+        <v>189000</v>
       </c>
       <c r="E199">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F199">
-        <v>170</v>
+        <v>290</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5226,16 +5151,16 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C200" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D200">
-        <v>200760</v>
+        <v>39800</v>
       </c>
       <c r="E200">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5243,19 +5168,16 @@
         <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C201" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D201">
-        <v>1400000</v>
+        <v>92580</v>
       </c>
       <c r="E201">
-        <v>60</v>
-      </c>
-      <c r="F201">
-        <v>185</v>
+        <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5263,19 +5185,19 @@
         <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C202" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D202">
-        <v>104250</v>
+        <v>287550</v>
       </c>
       <c r="E202">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F202">
-        <v>250</v>
+        <v>290</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5283,16 +5205,19 @@
         <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D203">
-        <v>41190</v>
+        <v>268000</v>
       </c>
       <c r="E203">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F203">
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5300,19 +5225,16 @@
         <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D204">
-        <v>199000</v>
+        <v>1346060</v>
       </c>
       <c r="E204">
-        <v>50</v>
-      </c>
-      <c r="F204">
-        <v>250</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5320,36 +5242,36 @@
         <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C205" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D205">
-        <v>57620</v>
+        <v>198000</v>
       </c>
       <c r="E205">
         <v>40</v>
       </c>
+      <c r="F205">
+        <v>250</v>
+      </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>6</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C206" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D206">
-        <v>243570</v>
-      </c>
-      <c r="E206">
-        <v>60</v>
+        <v>158000</v>
       </c>
       <c r="F206">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5357,19 +5279,16 @@
         <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C207" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D207">
-        <v>129000</v>
+        <v>119310</v>
       </c>
       <c r="E207">
-        <v>60</v>
-      </c>
-      <c r="F207">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5377,19 +5296,16 @@
         <v>6</v>
       </c>
       <c r="B208" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C208" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D208">
-        <v>219000</v>
+        <v>64510</v>
       </c>
       <c r="E208">
-        <v>60</v>
-      </c>
-      <c r="F208">
-        <v>250</v>
+        <v>40</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5397,19 +5313,19 @@
         <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C209" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D209">
-        <v>850680</v>
+        <v>399000</v>
       </c>
       <c r="E209">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F209">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5417,16 +5333,16 @@
         <v>6</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C210" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D210">
-        <v>28510</v>
+        <v>77420</v>
       </c>
       <c r="E210">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5434,19 +5350,16 @@
         <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C211" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D211">
-        <v>707870</v>
+        <v>45860</v>
       </c>
       <c r="E211">
-        <v>120</v>
-      </c>
-      <c r="F211">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5454,16 +5367,19 @@
         <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D212">
-        <v>60120</v>
+        <v>495030</v>
       </c>
       <c r="E212">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="F212">
+        <v>150</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5471,16 +5387,16 @@
         <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C213" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D213">
-        <v>89890</v>
-      </c>
-      <c r="E213">
-        <v>15</v>
+        <v>98000</v>
+      </c>
+      <c r="F213">
+        <v>170</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5488,19 +5404,16 @@
         <v>6</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C214" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D214">
-        <v>718392</v>
+        <v>25950</v>
       </c>
       <c r="E214">
-        <v>60</v>
-      </c>
-      <c r="F214">
-        <v>200</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5508,16 +5421,19 @@
         <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C215" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D215">
-        <v>85500</v>
+        <v>92910</v>
       </c>
       <c r="E215">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="F215">
+        <v>20</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5525,19 +5441,13 @@
         <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D216">
-        <v>134990</v>
-      </c>
-      <c r="E216">
-        <v>25</v>
-      </c>
-      <c r="F216">
-        <v>35</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5545,16 +5455,19 @@
         <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C217" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D217">
-        <v>226000</v>
+        <v>184000</v>
       </c>
       <c r="E217">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="F217">
+        <v>220</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5562,19 +5475,13 @@
         <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C218" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D218">
-        <v>199000</v>
-      </c>
-      <c r="E218">
-        <v>60</v>
-      </c>
-      <c r="F218">
-        <v>220</v>
+        <v>54870</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5582,19 +5489,19 @@
         <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C219" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D219">
-        <v>639790</v>
+        <v>182350</v>
       </c>
       <c r="E219">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="F219">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5602,19 +5509,16 @@
         <v>6</v>
       </c>
       <c r="B220" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C220" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D220">
-        <v>325630</v>
+        <v>147690</v>
       </c>
       <c r="E220">
-        <v>60</v>
-      </c>
-      <c r="F220">
-        <v>290</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5622,16 +5526,19 @@
         <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C221" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D221">
-        <v>49050</v>
+        <v>39800</v>
       </c>
       <c r="E221">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="F221">
+        <v>60</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5639,16 +5546,16 @@
         <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C222" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D222">
-        <v>53730</v>
+        <v>119000</v>
       </c>
       <c r="E222">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5656,13 +5563,16 @@
         <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C223" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D223">
-        <v>33350</v>
+        <v>576190</v>
+      </c>
+      <c r="E223">
+        <v>60</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5670,36 +5580,36 @@
         <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C224" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D224">
-        <v>52030</v>
+        <v>91630</v>
       </c>
       <c r="E224">
         <v>30</v>
       </c>
+      <c r="F224">
+        <v>180</v>
+      </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
         <v>6</v>
       </c>
       <c r="B225" t="s">
+        <v>39</v>
+      </c>
+      <c r="C225" t="s">
+        <v>288</v>
+      </c>
+      <c r="D225">
+        <v>35410</v>
+      </c>
+      <c r="E225">
         <v>12</v>
-      </c>
-      <c r="C225" t="s">
-        <v>296</v>
-      </c>
-      <c r="D225">
-        <v>149000</v>
-      </c>
-      <c r="E225">
-        <v>30</v>
-      </c>
-      <c r="F225">
-        <v>190</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5710,16 +5620,13 @@
         <v>32</v>
       </c>
       <c r="C226" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D226">
-        <v>35910</v>
+        <v>257990</v>
       </c>
       <c r="E226">
-        <v>28</v>
-      </c>
-      <c r="F226">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5730,13 +5637,16 @@
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D227">
-        <v>310000</v>
+        <v>492750</v>
       </c>
       <c r="E227">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="F227">
+        <v>150</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5744,19 +5654,19 @@
         <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C228" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D228">
-        <v>344910</v>
+        <v>592430</v>
       </c>
       <c r="E228">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F228">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5764,16 +5674,19 @@
         <v>6</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D229">
-        <v>327410</v>
+        <v>1037020</v>
       </c>
       <c r="E229">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="F229">
+        <v>210</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5781,16 +5694,16 @@
         <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D230">
-        <v>39810</v>
+        <v>212510</v>
       </c>
       <c r="E230">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5798,16 +5711,19 @@
         <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D231">
-        <v>103540</v>
+        <v>1198950</v>
       </c>
       <c r="E231">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="F231">
+        <v>210</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5815,19 +5731,19 @@
         <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D232">
-        <v>161280</v>
+        <v>667970</v>
       </c>
       <c r="E232">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F232">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5835,36 +5751,39 @@
         <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C233" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D233">
-        <v>119000</v>
+        <v>137030</v>
       </c>
       <c r="E233">
         <v>30</v>
       </c>
+      <c r="F233">
+        <v>250</v>
+      </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
         <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C234" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="D234">
-        <v>199000</v>
+        <v>59000</v>
       </c>
       <c r="E234">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F234">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5872,16 +5791,19 @@
         <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C235" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D235">
-        <v>28500</v>
+        <v>189000</v>
       </c>
       <c r="E235">
-        <v>120</v>
+        <v>50</v>
+      </c>
+      <c r="F235">
+        <v>250</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5889,13 +5811,19 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C236" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D236">
-        <v>24800</v>
+        <v>38120</v>
+      </c>
+      <c r="E236">
+        <v>9</v>
+      </c>
+      <c r="F236">
+        <v>60</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5903,19 +5831,19 @@
         <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C237" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D237">
-        <v>59800</v>
+        <v>625880</v>
       </c>
       <c r="E237">
         <v>40</v>
       </c>
       <c r="F237">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5923,16 +5851,19 @@
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D238">
-        <v>398950</v>
+        <v>1296370</v>
       </c>
       <c r="E238">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F238">
+        <v>210</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5940,16 +5871,19 @@
         <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C239" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D239">
-        <v>208910</v>
+        <v>44550</v>
       </c>
       <c r="E239">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="F239">
+        <v>60</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5957,19 +5891,16 @@
         <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D240">
-        <v>79000</v>
+        <v>49200</v>
       </c>
       <c r="E240">
-        <v>25</v>
-      </c>
-      <c r="F240">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5977,16 +5908,16 @@
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C241" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D241">
-        <v>38890</v>
+        <v>151050</v>
       </c>
       <c r="E241">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,13 +5925,19 @@
         <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D242">
-        <v>139000</v>
+        <v>268340</v>
+      </c>
+      <c r="E242">
+        <v>60</v>
+      </c>
+      <c r="F242">
+        <v>230</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6008,19 +5945,19 @@
         <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C243" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D243">
-        <v>139510</v>
+        <v>355410</v>
       </c>
       <c r="E243">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F243">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6028,13 +5965,16 @@
         <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C244" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D244">
-        <v>36400</v>
+        <v>107950</v>
+      </c>
+      <c r="F244">
+        <v>120</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6042,16 +5982,13 @@
         <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C245" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D245">
-        <v>52740</v>
-      </c>
-      <c r="E245">
-        <v>30</v>
+        <v>29130</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6059,19 +5996,19 @@
         <v>6</v>
       </c>
       <c r="B246" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C246" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D246">
-        <v>37110</v>
+        <v>39900</v>
       </c>
       <c r="E246">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F246">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6079,16 +6016,16 @@
         <v>6</v>
       </c>
       <c r="B247" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D247">
-        <v>35000</v>
+        <v>89610</v>
       </c>
       <c r="E247">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6096,13 +6033,19 @@
         <v>6</v>
       </c>
       <c r="B248" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C248" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D248">
-        <v>29260</v>
+        <v>198950</v>
+      </c>
+      <c r="E248">
+        <v>35</v>
+      </c>
+      <c r="F248">
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6110,16 +6053,19 @@
         <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D249">
-        <v>56190</v>
+        <v>674050</v>
       </c>
       <c r="E249">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="F249">
+        <v>200</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6127,13 +6073,13 @@
         <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D250">
-        <v>92660</v>
+        <v>686400</v>
       </c>
       <c r="E250">
         <v>40</v>
@@ -6144,16 +6090,19 @@
         <v>6</v>
       </c>
       <c r="B251" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C251" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D251">
-        <v>281060</v>
+        <v>176040</v>
       </c>
       <c r="E251">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="F251">
+        <v>170</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6161,19 +6110,16 @@
         <v>6</v>
       </c>
       <c r="B252" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C252" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D252">
-        <v>1020000</v>
+        <v>129580</v>
       </c>
       <c r="E252">
-        <v>40</v>
-      </c>
-      <c r="F252">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6181,19 +6127,16 @@
         <v>6</v>
       </c>
       <c r="B253" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C253" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D253">
-        <v>931000</v>
+        <v>77000</v>
       </c>
       <c r="E253">
-        <v>40</v>
-      </c>
-      <c r="F253">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6201,19 +6144,19 @@
         <v>6</v>
       </c>
       <c r="B254" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D254">
-        <v>107380</v>
+        <v>576356</v>
       </c>
       <c r="E254">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F254">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6221,19 +6164,16 @@
         <v>6</v>
       </c>
       <c r="B255" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C255" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D255">
-        <v>87620</v>
+        <v>34980</v>
       </c>
       <c r="E255">
-        <v>20</v>
-      </c>
-      <c r="F255">
-        <v>130</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6241,19 +6181,16 @@
         <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C256" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D256">
-        <v>122550</v>
+        <v>173745</v>
       </c>
       <c r="E256">
-        <v>40</v>
-      </c>
-      <c r="F256">
-        <v>210</v>
+        <v>48</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6261,16 +6198,19 @@
         <v>6</v>
       </c>
       <c r="B257" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C257" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D257">
-        <v>158990</v>
+        <v>138000</v>
       </c>
       <c r="E257">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="F257">
+        <v>180</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6278,13 +6218,13 @@
         <v>6</v>
       </c>
       <c r="B258" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C258" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D258">
-        <v>97990</v>
+        <v>86570</v>
       </c>
       <c r="E258">
         <v>25</v>
@@ -6298,15 +6238,18 @@
         <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C259" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D259">
-        <v>608960</v>
+        <v>43970</v>
       </c>
       <c r="E259">
+        <v>20</v>
+      </c>
+      <c r="F259">
         <v>60</v>
       </c>
     </row>
@@ -6318,13 +6261,13 @@
         <v>10</v>
       </c>
       <c r="C260" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D260">
-        <v>319000</v>
+        <v>231870</v>
       </c>
       <c r="E260">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6332,13 +6275,13 @@
         <v>6</v>
       </c>
       <c r="B261" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C261" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D261">
-        <v>79000</v>
+        <v>74960</v>
       </c>
       <c r="E261">
         <v>35</v>
@@ -6349,19 +6292,19 @@
         <v>6</v>
       </c>
       <c r="B262" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C262" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D262">
-        <v>511630</v>
+        <v>69000</v>
       </c>
       <c r="E262">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F262">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6369,19 +6312,16 @@
         <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C263" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D263">
-        <v>299000</v>
+        <v>26880</v>
       </c>
       <c r="E263">
-        <v>65</v>
-      </c>
-      <c r="F263">
-        <v>220</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6389,16 +6329,19 @@
         <v>6</v>
       </c>
       <c r="B264" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C264" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D264">
-        <v>157500</v>
+        <v>1399950</v>
       </c>
       <c r="E264">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="F264">
+        <v>185</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6406,19 +6349,19 @@
         <v>6</v>
       </c>
       <c r="B265" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C265" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D265">
-        <v>850810</v>
+        <v>179000</v>
       </c>
       <c r="E265">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F265">
-        <v>160</v>
+        <v>250</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6426,33 +6369,39 @@
         <v>6</v>
       </c>
       <c r="B266" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C266" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D266">
-        <v>49610</v>
+        <v>131860</v>
       </c>
       <c r="E266">
         <v>30</v>
       </c>
+      <c r="F266">
+        <v>150</v>
+      </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
         <v>6</v>
       </c>
       <c r="B267" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C267" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>1269000</v>
       </c>
       <c r="E267">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="F267">
+        <v>210</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6460,19 +6409,19 @@
         <v>6</v>
       </c>
       <c r="B268" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C268" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D268">
-        <v>682650</v>
+        <v>169000</v>
       </c>
       <c r="E268">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F268">
-        <v>150</v>
+        <v>220</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6480,16 +6429,19 @@
         <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C269" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D269">
-        <v>898470</v>
+        <v>219000</v>
       </c>
       <c r="E269">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="F269">
+        <v>250</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6497,16 +6449,16 @@
         <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C270" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D270">
-        <v>102590</v>
+        <v>195300</v>
       </c>
       <c r="E270">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6514,19 +6466,16 @@
         <v>6</v>
       </c>
       <c r="B271" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C271" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D271">
-        <v>129000</v>
+        <v>59000</v>
       </c>
       <c r="E271">
-        <v>60</v>
-      </c>
-      <c r="F271">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6534,13 +6483,19 @@
         <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C272" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D272">
-        <v>99000</v>
+        <v>67000</v>
+      </c>
+      <c r="E272">
+        <v>35</v>
+      </c>
+      <c r="F272">
+        <v>80</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6548,18 +6503,15 @@
         <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C273" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D273">
-        <v>232860</v>
+        <v>196200</v>
       </c>
       <c r="E273">
-        <v>60</v>
-      </c>
-      <c r="F273">
         <v>40</v>
       </c>
     </row>
@@ -6568,16 +6520,19 @@
         <v>6</v>
       </c>
       <c r="B274" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C274" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D274">
-        <v>110590</v>
+        <v>243650</v>
       </c>
       <c r="E274">
-        <v>35</v>
+        <v>70</v>
+      </c>
+      <c r="F274">
+        <v>250</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6585,16 +6540,16 @@
         <v>6</v>
       </c>
       <c r="B275" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C275" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D275">
-        <v>1200000</v>
+        <v>48400</v>
       </c>
       <c r="E275">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6602,16 +6557,16 @@
         <v>6</v>
       </c>
       <c r="B276" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C276" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D276">
-        <v>132960</v>
+        <v>308620</v>
       </c>
       <c r="E276">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6619,16 +6574,19 @@
         <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C277" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D277">
-        <v>59340</v>
+        <v>183090</v>
       </c>
       <c r="E277">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="F277">
+        <v>200</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6636,19 +6594,16 @@
         <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C278" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D278">
-        <v>960780</v>
+        <v>53900</v>
       </c>
       <c r="E278">
-        <v>80</v>
-      </c>
-      <c r="F278">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6656,16 +6611,16 @@
         <v>6</v>
       </c>
       <c r="B279" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C279" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D279">
-        <v>47500</v>
+        <v>225930</v>
       </c>
       <c r="E279">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6673,19 +6628,19 @@
         <v>6</v>
       </c>
       <c r="B280" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C280" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D280">
-        <v>195970</v>
+        <v>390640</v>
       </c>
       <c r="E280">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F280">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6693,19 +6648,19 @@
         <v>6</v>
       </c>
       <c r="B281" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C281" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D281">
-        <v>63240</v>
+        <v>852630</v>
       </c>
       <c r="E281">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F281">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6713,16 +6668,16 @@
         <v>6</v>
       </c>
       <c r="B282" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C282" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D282">
-        <v>101080</v>
+        <v>185880</v>
       </c>
       <c r="E282">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6730,16 +6685,19 @@
         <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C283" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D283">
-        <v>320910</v>
+        <v>84150</v>
       </c>
       <c r="E283">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="F283">
+        <v>90</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6747,13 +6705,13 @@
         <v>6</v>
       </c>
       <c r="B284" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C284" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D284">
-        <v>159000</v>
+        <v>667260</v>
       </c>
       <c r="E284">
         <v>60</v>
@@ -6767,13 +6725,19 @@
         <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="C285" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D285">
-        <v>45490</v>
+        <v>504990</v>
+      </c>
+      <c r="E285">
+        <v>60</v>
+      </c>
+      <c r="F285">
+        <v>200</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6781,16 +6745,16 @@
         <v>6</v>
       </c>
       <c r="B286" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C286" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D286">
-        <v>65570</v>
+        <v>29820</v>
       </c>
       <c r="E286">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6798,288 +6762,19 @@
         <v>6</v>
       </c>
       <c r="B287" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C287" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D287">
-        <v>86030</v>
+        <v>129120</v>
       </c>
       <c r="E287">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F287">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="A288" t="s">
-        <v>6</v>
-      </c>
-      <c r="B288" t="s">
-        <v>11</v>
-      </c>
-      <c r="C288" t="s">
-        <v>358</v>
-      </c>
-      <c r="D288">
-        <v>590590</v>
-      </c>
-      <c r="E288">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
-      <c r="A289" t="s">
-        <v>6</v>
-      </c>
-      <c r="B289" t="s">
-        <v>30</v>
-      </c>
-      <c r="C289" t="s">
-        <v>359</v>
-      </c>
-      <c r="D289">
-        <v>69830</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
-      <c r="A290" t="s">
-        <v>6</v>
-      </c>
-      <c r="B290" t="s">
-        <v>69</v>
-      </c>
-      <c r="C290" t="s">
-        <v>360</v>
-      </c>
-      <c r="D290">
-        <v>85890</v>
-      </c>
-      <c r="E290">
-        <v>35</v>
-      </c>
-      <c r="F290">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
-      <c r="A291" t="s">
-        <v>6</v>
-      </c>
-      <c r="B291" t="s">
-        <v>11</v>
-      </c>
-      <c r="C291" t="s">
-        <v>361</v>
-      </c>
-      <c r="D291">
-        <v>777680</v>
-      </c>
-      <c r="E291">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
-      <c r="A292" t="s">
-        <v>6</v>
-      </c>
-      <c r="B292" t="s">
-        <v>11</v>
-      </c>
-      <c r="C292" t="s">
-        <v>362</v>
-      </c>
-      <c r="D292">
-        <v>1409060</v>
-      </c>
-      <c r="E292">
-        <v>60</v>
-      </c>
-      <c r="F292">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
-      <c r="A293" t="s">
-        <v>6</v>
-      </c>
-      <c r="B293" t="s">
-        <v>23</v>
-      </c>
-      <c r="C293" t="s">
-        <v>363</v>
-      </c>
-      <c r="D293">
-        <v>99000</v>
-      </c>
-      <c r="E293">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
-      <c r="A294" t="s">
-        <v>6</v>
-      </c>
-      <c r="B294" t="s">
-        <v>70</v>
-      </c>
-      <c r="C294" t="s">
-        <v>364</v>
-      </c>
-      <c r="D294">
-        <v>149820</v>
-      </c>
-      <c r="E294">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
-      <c r="A295" t="s">
-        <v>6</v>
-      </c>
-      <c r="B295" t="s">
-        <v>58</v>
-      </c>
-      <c r="C295" t="s">
-        <v>365</v>
-      </c>
-      <c r="D295">
-        <v>156840</v>
-      </c>
-      <c r="E295">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
-      <c r="A296" t="s">
-        <v>6</v>
-      </c>
-      <c r="B296" t="s">
-        <v>34</v>
-      </c>
-      <c r="C296" t="s">
-        <v>366</v>
-      </c>
-      <c r="D296">
-        <v>198950</v>
-      </c>
-      <c r="E296">
-        <v>35</v>
-      </c>
-      <c r="F296">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
-      <c r="A297" t="s">
-        <v>6</v>
-      </c>
-      <c r="B297" t="s">
-        <v>31</v>
-      </c>
-      <c r="C297" t="s">
-        <v>367</v>
-      </c>
-      <c r="D297">
-        <v>76120</v>
-      </c>
-      <c r="E297">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
-      <c r="A298" t="s">
-        <v>6</v>
-      </c>
-      <c r="B298" t="s">
-        <v>9</v>
-      </c>
-      <c r="C298" t="s">
-        <v>368</v>
-      </c>
-      <c r="D298">
-        <v>30350</v>
-      </c>
-      <c r="E298">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
-      <c r="A299" t="s">
-        <v>6</v>
-      </c>
-      <c r="B299" t="s">
-        <v>71</v>
-      </c>
-      <c r="C299" t="s">
-        <v>369</v>
-      </c>
-      <c r="D299">
-        <v>24750</v>
-      </c>
-      <c r="E299">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
-      <c r="A300" t="s">
-        <v>6</v>
-      </c>
-      <c r="B300" t="s">
-        <v>14</v>
-      </c>
-      <c r="C300" t="s">
-        <v>370</v>
-      </c>
-      <c r="D300">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
-      <c r="A301" t="s">
-        <v>6</v>
-      </c>
-      <c r="B301" t="s">
-        <v>10</v>
-      </c>
-      <c r="C301" t="s">
-        <v>371</v>
-      </c>
-      <c r="D301">
-        <v>48320</v>
-      </c>
-      <c r="E301">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
-      <c r="A302" t="s">
-        <v>6</v>
-      </c>
-      <c r="B302" t="s">
-        <v>57</v>
-      </c>
-      <c r="C302" t="s">
-        <v>372</v>
-      </c>
-      <c r="D302">
-        <v>40900</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
-      <c r="A303" t="s">
-        <v>6</v>
-      </c>
-      <c r="B303" t="s">
-        <v>72</v>
-      </c>
-      <c r="C303" t="s">
-        <v>373</v>
-      </c>
-      <c r="D303">
-        <v>126420</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
